--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2173989.744490959</v>
+        <v>-2174801.981296497</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2909833.600547334</v>
+        <v>2909833.60054733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1148,10 +1148,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="I8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>10.00967878293136</v>
@@ -1260,10 +1260,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1312,52 +1312,52 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.5465712312743</v>
       </c>
       <c r="C11" t="n">
-        <v>289.557888188956</v>
+        <v>246.9132770714105</v>
       </c>
       <c r="D11" t="n">
         <v>280.539192233484</v>
       </c>
       <c r="E11" t="n">
-        <v>49.57281218505693</v>
+        <v>302.2813298033896</v>
       </c>
       <c r="F11" t="n">
         <v>321.4531458913667</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8491597882405</v>
+        <v>322.8491597882406</v>
       </c>
       <c r="H11" t="n">
-        <v>235.4343762339799</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.8200090555741</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.55747718688173</v>
+        <v>84.55747718688181</v>
       </c>
       <c r="T11" t="n">
-        <v>131.2069945273324</v>
+        <v>131.2069945273325</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7369697115373</v>
+        <v>163.7369697115374</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0529484714534</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3530479494103</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>301.0499039783557</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.33892434428589</v>
+        <v>41.3389243442859</v>
       </c>
       <c r="S12" t="n">
         <v>145.9321186766747</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.16328210597132</v>
+        <v>93.16328210597139</v>
       </c>
       <c r="C13" t="n">
-        <v>79.3632769513718</v>
+        <v>79.36327695137187</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.93239120472964</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.39931553291595</v>
+        <v>62.39931553291602</v>
       </c>
       <c r="G13" t="n">
-        <v>78.43302460524717</v>
+        <v>78.43302460524724</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07973325206105</v>
+        <v>67.07973325206112</v>
       </c>
       <c r="I13" t="n">
-        <v>46.95714478044761</v>
+        <v>46.95714478044768</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.63407987987209</v>
+        <v>35.14974182931745</v>
       </c>
       <c r="S13" t="n">
-        <v>18.23265470593536</v>
+        <v>118.8162700318315</v>
       </c>
       <c r="T13" t="n">
-        <v>141.2609306242059</v>
+        <v>141.260930624206</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7486591160982</v>
+        <v>195.7486591160983</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.571418505597</v>
       </c>
       <c r="W13" t="n">
-        <v>194.7383045762102</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3834065720133</v>
+        <v>140.3834065720134</v>
       </c>
       <c r="Y13" t="n">
         <v>131.258274328081</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>207.0157102581784</v>
+        <v>289.557888188956</v>
       </c>
       <c r="D14" t="n">
         <v>280.539192233484</v>
@@ -1622,7 +1622,7 @@
         <v>322.8491597882405</v>
       </c>
       <c r="H14" t="n">
-        <v>235.4343762339799</v>
+        <v>104.9062290604118</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.55747718688173</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>131.2069945273324</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.7369697115373</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>270.3530479494103</v>
       </c>
       <c r="X14" t="n">
         <v>289.6533061821569</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.33892434428589</v>
+        <v>41.3389243442859</v>
       </c>
       <c r="S15" t="n">
         <v>145.9321186766747</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.16328210597132</v>
+        <v>93.16328210597131</v>
       </c>
       <c r="C16" t="n">
-        <v>79.3632769513718</v>
+        <v>79.36327695137179</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.93239120472964</v>
+        <v>61.93239120472963</v>
       </c>
       <c r="F16" t="n">
-        <v>62.39931553291595</v>
+        <v>62.39931553291594</v>
       </c>
       <c r="G16" t="n">
-        <v>78.43302460524717</v>
+        <v>78.43302460524716</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>67.07973325206105</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.95714478044759</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.89933065290087</v>
+        <v>48.63407987987209</v>
       </c>
       <c r="S16" t="n">
         <v>118.8162700318315</v>
@@ -1819,16 +1819,16 @@
         <v>141.2609306242059</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7486591160982</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>169.5714185055969</v>
+        <v>95.16504379020232</v>
       </c>
       <c r="W16" t="n">
         <v>194.7383045762102</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>140.3834065720133</v>
       </c>
       <c r="Y16" t="n">
         <v>131.258274328081</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1795505202353</v>
+        <v>224.1795505202352</v>
       </c>
       <c r="C17" t="n">
         <v>212.190867477917</v>
@@ -1856,7 +1856,7 @@
         <v>244.0861251803277</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4821390772016</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H17" t="n">
         <v>158.0673555229409</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.19045647584278</v>
+        <v>7.190456475842723</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83997381629342</v>
+        <v>53.83997381629337</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36994900049837</v>
+        <v>86.36994900049831</v>
       </c>
       <c r="V17" t="n">
         <v>167.6859277604144</v>
@@ -1910,7 +1910,7 @@
         <v>212.2862854711179</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6828832673167</v>
+        <v>223.6828832673166</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.33892434428589</v>
+        <v>41.3389243442859</v>
       </c>
       <c r="S18" t="n">
         <v>145.9321186766747</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79626139493237</v>
+        <v>15.79626139493232</v>
       </c>
       <c r="C19" t="n">
-        <v>1.996256240332855</v>
+        <v>1.996256240332798</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.066003894208226</v>
+        <v>1.066003894208169</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.3524561707233</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.44924932079252</v>
+        <v>41.44924932079246</v>
       </c>
       <c r="T19" t="n">
-        <v>63.89390991316695</v>
+        <v>63.8939099131669</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3816384050593</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V19" t="n">
-        <v>247.5568539652805</v>
+        <v>92.20439779455791</v>
       </c>
       <c r="W19" t="n">
         <v>117.3712838651712</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01638586097434</v>
+        <v>63.01638586097428</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.89125361704203</v>
+        <v>53.89125361704197</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1795505202354</v>
+        <v>224.1795505202352</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1908674779171</v>
+        <v>212.190867477917</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1721715224451</v>
+        <v>203.1721715224449</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9143090923506</v>
+        <v>224.9143090923505</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0861251803278</v>
+        <v>244.0861251803276</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4821390772017</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H20" t="n">
-        <v>158.067355522941</v>
+        <v>158.0673555229409</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.190456475842865</v>
+        <v>7.190456475842694</v>
       </c>
       <c r="T20" t="n">
-        <v>53.83997381629351</v>
+        <v>53.83997381629334</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36994900049845</v>
+        <v>86.36994900049828</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6859277604145</v>
+        <v>167.6859277604143</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9860272383714</v>
+        <v>192.9860272383712</v>
       </c>
       <c r="X20" t="n">
-        <v>212.286285471118</v>
+        <v>212.2862854711178</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6828832673168</v>
+        <v>223.6828832673166</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79626139493246</v>
+        <v>15.79626139493229</v>
       </c>
       <c r="C22" t="n">
-        <v>1.99625624033294</v>
+        <v>1.996256240332769</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.066003894208311</v>
+        <v>1.066003894208141</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.8017054915145</v>
+        <v>41.44924932079243</v>
       </c>
       <c r="T22" t="n">
-        <v>63.89390991316704</v>
+        <v>63.89390991316687</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3816384050594</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20439779455805</v>
+        <v>247.5568539652814</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3712838651713</v>
+        <v>117.3712838651711</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01638586097442</v>
+        <v>63.01638586097425</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.89125361704211</v>
+        <v>53.89125361704194</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1795505202354</v>
+        <v>224.1795505202352</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1908674779171</v>
+        <v>212.190867477917</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1721715224451</v>
+        <v>203.1721715224449</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9143090923506</v>
+        <v>224.9143090923505</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0861251803278</v>
+        <v>244.0861251803276</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4821390772017</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H23" t="n">
-        <v>158.067355522941</v>
+        <v>158.0673555229409</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.190456475842865</v>
+        <v>7.190456475842694</v>
       </c>
       <c r="T23" t="n">
-        <v>53.83997381629351</v>
+        <v>53.83997381629334</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36994900049845</v>
+        <v>86.36994900049828</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6859277604145</v>
+        <v>167.6859277604143</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9860272383714</v>
+        <v>192.9860272383712</v>
       </c>
       <c r="X23" t="n">
-        <v>212.286285471118</v>
+        <v>212.2862854711178</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6828832673168</v>
+        <v>223.6828832673166</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79626139493246</v>
+        <v>15.79626139493229</v>
       </c>
       <c r="C25" t="n">
-        <v>1.99625624033294</v>
+        <v>1.996256240332769</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.066003894208311</v>
+        <v>1.066003894208141</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3524561707219</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.1906127714368</v>
       </c>
       <c r="S25" t="n">
-        <v>41.4492493207926</v>
+        <v>41.44924932079243</v>
       </c>
       <c r="T25" t="n">
-        <v>63.89390991316704</v>
+        <v>63.89390991316687</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3816384050594</v>
+        <v>136.5434818043459</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20439779455805</v>
+        <v>92.20439779455788</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3712838651713</v>
+        <v>117.3712838651711</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01638586097442</v>
+        <v>63.01638586097425</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.89125361704211</v>
+        <v>53.89125361704194</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58396643302939</v>
+        <v>70.58396643302937</v>
       </c>
       <c r="T26" t="n">
         <v>117.23348377348</v>
@@ -2728,7 +2728,7 @@
         <v>64.45951385139482</v>
       </c>
       <c r="H28" t="n">
-        <v>53.10622249820869</v>
+        <v>53.10622249820871</v>
       </c>
       <c r="I28" t="n">
         <v>32.98363402659525</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66056912601974</v>
+        <v>34.66056912601975</v>
       </c>
       <c r="S28" t="n">
         <v>104.8427592779791</v>
@@ -2798,7 +2798,7 @@
         <v>266.5656814796316</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3078190495372</v>
+        <v>288.3078190495371</v>
       </c>
       <c r="F29" t="n">
         <v>307.4796351375143</v>
@@ -2807,10 +2807,10 @@
         <v>308.8756490343882</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4608654801276</v>
+        <v>221.4608654801275</v>
       </c>
       <c r="I29" t="n">
-        <v>47.84649830172175</v>
+        <v>47.84649830172174</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58396643302937</v>
+        <v>70.58396643302936</v>
       </c>
       <c r="T29" t="n">
         <v>117.23348377348</v>
       </c>
       <c r="U29" t="n">
-        <v>149.763458957685</v>
+        <v>149.7634589576849</v>
       </c>
       <c r="V29" t="n">
         <v>231.079437717601</v>
@@ -2858,7 +2858,7 @@
         <v>275.6797954283045</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.0763932245033</v>
+        <v>287.0763932245032</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.18977135211897</v>
+        <v>79.18977135211895</v>
       </c>
       <c r="C31" t="n">
-        <v>65.38976619751945</v>
+        <v>65.38976619751944</v>
       </c>
       <c r="D31" t="n">
-        <v>49.01113059509784</v>
+        <v>49.01113059509782</v>
       </c>
       <c r="E31" t="n">
-        <v>47.95888045087729</v>
+        <v>47.95888045087727</v>
       </c>
       <c r="F31" t="n">
-        <v>48.4258047790636</v>
+        <v>48.42580477906358</v>
       </c>
       <c r="G31" t="n">
-        <v>64.45951385139482</v>
+        <v>64.4595138513948</v>
       </c>
       <c r="H31" t="n">
-        <v>53.10622249820871</v>
+        <v>53.10622249820869</v>
       </c>
       <c r="I31" t="n">
-        <v>32.98363402659525</v>
+        <v>32.98363402659524</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66056912601975</v>
+        <v>34.66056912601974</v>
       </c>
       <c r="S31" t="n">
         <v>104.8427592779791</v>
       </c>
       <c r="T31" t="n">
-        <v>127.2874198703536</v>
+        <v>127.2874198703535</v>
       </c>
       <c r="U31" t="n">
         <v>181.7751483622459</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5979077517446</v>
+        <v>155.5979077517445</v>
       </c>
       <c r="W31" t="n">
         <v>180.7647938223578</v>
@@ -3029,25 +3029,25 @@
         <v>284.9833563827019</v>
       </c>
       <c r="C32" t="n">
-        <v>272.9946733403837</v>
+        <v>272.9946733403836</v>
       </c>
       <c r="D32" t="n">
         <v>263.9759773849116</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7181149548172</v>
+        <v>285.7181149548171</v>
       </c>
       <c r="F32" t="n">
         <v>304.8899310427943</v>
       </c>
       <c r="G32" t="n">
-        <v>306.2859449396682</v>
+        <v>306.2859449396681</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8711613854076</v>
+        <v>218.8711613854075</v>
       </c>
       <c r="I32" t="n">
-        <v>45.25679420700176</v>
+        <v>45.25679420700173</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.99426233830938</v>
+        <v>67.99426233830935</v>
       </c>
       <c r="T32" t="n">
         <v>114.64377967876</v>
       </c>
       <c r="U32" t="n">
-        <v>147.173754862965</v>
+        <v>147.1737548629649</v>
       </c>
       <c r="V32" t="n">
         <v>228.489733622881</v>
@@ -3092,7 +3092,7 @@
         <v>253.7898331008379</v>
       </c>
       <c r="X32" t="n">
-        <v>273.0900913335846</v>
+        <v>273.0900913335845</v>
       </c>
       <c r="Y32" t="n">
         <v>284.4866891297833</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.60006725739898</v>
+        <v>76.60006725739895</v>
       </c>
       <c r="C34" t="n">
-        <v>62.80006210279946</v>
+        <v>62.80006210279943</v>
       </c>
       <c r="D34" t="n">
-        <v>46.42142650037785</v>
+        <v>46.42142650037782</v>
       </c>
       <c r="E34" t="n">
-        <v>45.3691763561573</v>
+        <v>45.36917635615727</v>
       </c>
       <c r="F34" t="n">
-        <v>45.83610068434361</v>
+        <v>45.83610068434358</v>
       </c>
       <c r="G34" t="n">
-        <v>61.86980975667483</v>
+        <v>61.8698097566748</v>
       </c>
       <c r="H34" t="n">
-        <v>50.5165184034887</v>
+        <v>50.51651840348867</v>
       </c>
       <c r="I34" t="n">
-        <v>30.39392993187526</v>
+        <v>30.39392993187523</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07086503129975</v>
+        <v>32.07086503129972</v>
       </c>
       <c r="S34" t="n">
         <v>102.2530551832591</v>
       </c>
       <c r="T34" t="n">
-        <v>124.6977157756336</v>
+        <v>124.6977157756335</v>
       </c>
       <c r="U34" t="n">
-        <v>179.1854442675259</v>
+        <v>179.1854442675258</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0082036570246</v>
+        <v>153.0082036570245</v>
       </c>
       <c r="W34" t="n">
         <v>178.1750897276378</v>
@@ -3266,22 +3266,22 @@
         <v>237.3901961984366</v>
       </c>
       <c r="C35" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D35" t="n">
         <v>216.3828172006463</v>
       </c>
       <c r="E35" t="n">
-        <v>238.1249547705519</v>
+        <v>238.1249547705518</v>
       </c>
       <c r="F35" t="n">
         <v>257.296770858529</v>
       </c>
       <c r="G35" t="n">
-        <v>258.6927847554029</v>
+        <v>258.6927847554028</v>
       </c>
       <c r="H35" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.40110215404411</v>
+        <v>20.40110215404405</v>
       </c>
       <c r="T35" t="n">
-        <v>67.05061949449475</v>
+        <v>67.0506194944947</v>
       </c>
       <c r="U35" t="n">
-        <v>99.5805946786997</v>
+        <v>99.58059467869964</v>
       </c>
       <c r="V35" t="n">
         <v>180.8965734386157</v>
       </c>
       <c r="W35" t="n">
-        <v>206.1966729165727</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X35" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y35" t="n">
         <v>236.893528945518</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.0069070731337</v>
+        <v>29.00690707313365</v>
       </c>
       <c r="C37" t="n">
-        <v>15.20690191853419</v>
+        <v>15.20690191853413</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.27664957240956</v>
+        <v>14.2766495724095</v>
       </c>
       <c r="H37" t="n">
-        <v>2.923358219223434</v>
+        <v>2.923358219223378</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>74.98253616847984</v>
+        <v>54.65989499899379</v>
       </c>
       <c r="T37" t="n">
-        <v>77.10455559136828</v>
+        <v>77.10455559136823</v>
       </c>
       <c r="U37" t="n">
         <v>131.5922840832606</v>
       </c>
       <c r="V37" t="n">
-        <v>105.4150434727593</v>
+        <v>105.4150434727592</v>
       </c>
       <c r="W37" t="n">
-        <v>130.5819295433726</v>
+        <v>150.9045707128592</v>
       </c>
       <c r="X37" t="n">
-        <v>76.22703153917567</v>
+        <v>76.22703153917561</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.10189929524336</v>
+        <v>67.1018992952433</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.40110215404412</v>
+        <v>20.40110215404411</v>
       </c>
       <c r="T38" t="n">
         <v>67.05061949449475</v>
@@ -3679,7 +3679,7 @@
         <v>2.923358219223434</v>
       </c>
       <c r="I40" t="n">
-        <v>20.32264116948598</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>105.4150434727593</v>
       </c>
       <c r="W40" t="n">
-        <v>130.5819295433726</v>
+        <v>132.93253460812</v>
       </c>
       <c r="X40" t="n">
         <v>76.22703153917567</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.3901961984366</v>
+        <v>237.3901961984365</v>
       </c>
       <c r="C41" t="n">
         <v>225.4015131561183</v>
       </c>
       <c r="D41" t="n">
-        <v>216.3828172006463</v>
+        <v>216.3828172006462</v>
       </c>
       <c r="E41" t="n">
         <v>238.1249547705518</v>
       </c>
       <c r="F41" t="n">
-        <v>257.296770858529</v>
+        <v>257.2967708585289</v>
       </c>
       <c r="G41" t="n">
         <v>258.6927847554028</v>
@@ -3758,7 +3758,7 @@
         <v>171.2780012011422</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.069224708771799e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.40110215404405</v>
+        <v>20.40110215404401</v>
       </c>
       <c r="T41" t="n">
-        <v>67.0506194944947</v>
+        <v>67.05061949449464</v>
       </c>
       <c r="U41" t="n">
-        <v>99.58059467869964</v>
+        <v>99.58059467869958</v>
       </c>
       <c r="V41" t="n">
-        <v>180.8965734386157</v>
+        <v>180.8965734386156</v>
       </c>
       <c r="W41" t="n">
-        <v>206.1966729165726</v>
+        <v>206.1966729165725</v>
       </c>
       <c r="X41" t="n">
         <v>225.4969311493192</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.893528945518</v>
+        <v>236.8935289455179</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.00690707313365</v>
+        <v>29.00690707313359</v>
       </c>
       <c r="C43" t="n">
-        <v>15.20690191853413</v>
+        <v>15.20690191853407</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.2766495724095</v>
+        <v>14.27664957240944</v>
       </c>
       <c r="H43" t="n">
-        <v>2.923358219223377</v>
+        <v>2.923358219223321</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>20.32264116948725</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>74.98253616848039</v>
+        <v>54.65989499899374</v>
       </c>
       <c r="T43" t="n">
-        <v>77.10455559136823</v>
+        <v>77.10455559136817</v>
       </c>
       <c r="U43" t="n">
-        <v>131.5922840832606</v>
+        <v>131.5922840832605</v>
       </c>
       <c r="V43" t="n">
         <v>105.4150434727592</v>
       </c>
       <c r="W43" t="n">
-        <v>130.5819295433725</v>
+        <v>130.5819295433724</v>
       </c>
       <c r="X43" t="n">
-        <v>76.22703153917561</v>
+        <v>76.22703153917556</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.1018992952433</v>
+        <v>67.10189929524324</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.3901961984367</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C44" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D44" t="n">
-        <v>216.3828172006464</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E44" t="n">
         <v>238.1249547705519</v>
@@ -3989,10 +3989,10 @@
         <v>257.296770858529</v>
       </c>
       <c r="G44" t="n">
-        <v>258.692784755403</v>
+        <v>258.6927847554029</v>
       </c>
       <c r="H44" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.40110215404414</v>
+        <v>20.40110215404409</v>
       </c>
       <c r="T44" t="n">
-        <v>67.05061949449478</v>
+        <v>67.05061949449473</v>
       </c>
       <c r="U44" t="n">
-        <v>99.58059467869973</v>
+        <v>99.58059467869967</v>
       </c>
       <c r="V44" t="n">
-        <v>180.8965734386158</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W44" t="n">
-        <v>206.1966729165727</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X44" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.8935289455181</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.00690707313373</v>
+        <v>29.00690707313368</v>
       </c>
       <c r="C46" t="n">
-        <v>15.20690191853421</v>
+        <v>15.20690191853416</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>20.32264116948626</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.27664957240959</v>
+        <v>14.27664957240953</v>
       </c>
       <c r="H46" t="n">
-        <v>2.923358219223462</v>
+        <v>2.923358219223406</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.32264116948569</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.65989499899388</v>
+        <v>54.65989499899382</v>
       </c>
       <c r="T46" t="n">
-        <v>77.10455559136831</v>
+        <v>77.10455559136825</v>
       </c>
       <c r="U46" t="n">
         <v>131.5922840832606</v>
@@ -4195,13 +4195,13 @@
         <v>105.4150434727593</v>
       </c>
       <c r="W46" t="n">
-        <v>130.5819295433726</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X46" t="n">
-        <v>76.2270315391757</v>
+        <v>76.22703153917564</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.10189929524338</v>
+        <v>67.10189929524333</v>
       </c>
     </row>
   </sheetData>
@@ -4784,7 +4784,7 @@
         <v>40.03871513172544</v>
       </c>
       <c r="D8" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="E8" t="n">
         <v>31.13313425091136</v>
@@ -4796,28 +4796,28 @@
         <v>10.91156095206012</v>
       </c>
       <c r="H8" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M8" t="n">
-        <v>20.6199382928386</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N8" t="n">
-        <v>20.6199382928386</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O8" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P8" t="n">
         <v>40.03871513172544</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H9" t="n">
         <v>10.91156095206012</v>
@@ -4884,19 +4884,19 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
-        <v>30.12913313662339</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M9" t="n">
-        <v>30.12913313662339</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N9" t="n">
-        <v>30.12913313662339</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="O9" t="n">
-        <v>30.12913313662339</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="P9" t="n">
         <v>30.12913313662339</v>
@@ -4908,25 +4908,25 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="T9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="U9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L10" t="n">
-        <v>20.6199382928386</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="M10" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
-        <v>20.6199382928386</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O10" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="R10" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S10" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T10" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="U10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="V10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="W10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.628048169027</v>
+        <v>1539.556857473303</v>
       </c>
       <c r="C11" t="n">
-        <v>1335.145332826648</v>
+        <v>1290.149506896121</v>
       </c>
       <c r="D11" t="n">
-        <v>1051.772411378684</v>
+        <v>1006.776585448157</v>
       </c>
       <c r="E11" t="n">
-        <v>1001.69886371701</v>
+        <v>701.4419088790769</v>
       </c>
       <c r="F11" t="n">
-        <v>676.9987163519936</v>
+        <v>376.7417615140603</v>
       </c>
       <c r="G11" t="n">
-        <v>350.8884539396294</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H11" t="n">
-        <v>113.075952693185</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I11" t="n">
         <v>50.631499101696</v>
@@ -5045,13 +5045,13 @@
         <v>475.5705058676343</v>
       </c>
       <c r="L11" t="n">
-        <v>907.3907625372512</v>
+        <v>720.5735509263233</v>
       </c>
       <c r="M11" t="n">
-        <v>1394.023659298945</v>
+        <v>1207.206447688017</v>
       </c>
       <c r="N11" t="n">
-        <v>1867.259956695035</v>
+        <v>1680.442745084107</v>
       </c>
       <c r="O11" t="n">
         <v>2075.063371992038</v>
@@ -5075,16 +5075,16 @@
         <v>2148.240165765859</v>
       </c>
       <c r="V11" t="n">
-        <v>1900.711934986613</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="W11" t="n">
-        <v>1627.628048169027</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="X11" t="n">
-        <v>1627.628048169027</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="Y11" t="n">
-        <v>1627.628048169027</v>
+        <v>1844.14935366651</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8525970584477</v>
+        <v>916.8525970584473</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1489242994026</v>
+        <v>755.1489242994021</v>
       </c>
       <c r="D12" t="n">
-        <v>616.3102872896145</v>
+        <v>616.3102872896141</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2822773464857</v>
+        <v>469.2822773464852</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5884792963601</v>
+        <v>334.5884792963597</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1503391504157</v>
+        <v>206.1503391504152</v>
       </c>
       <c r="H12" t="n">
-        <v>109.0167463785078</v>
+        <v>109.0167463785074</v>
       </c>
       <c r="I12" t="n">
         <v>50.631499101696</v>
@@ -5121,19 +5121,19 @@
         <v>50.631499101696</v>
       </c>
       <c r="K12" t="n">
-        <v>307.5348371263848</v>
+        <v>50.631499101696</v>
       </c>
       <c r="L12" t="n">
-        <v>735.1471015079863</v>
+        <v>478.2437634832975</v>
       </c>
       <c r="M12" t="n">
-        <v>1292.286959772228</v>
+        <v>935.8484231522291</v>
       </c>
       <c r="N12" t="n">
-        <v>1877.567555270603</v>
+        <v>1521.129018650604</v>
       </c>
       <c r="O12" t="n">
-        <v>2337.476724739038</v>
+        <v>1981.038188119039</v>
       </c>
       <c r="P12" t="n">
         <v>2337.476724739038</v>
@@ -5148,7 +5148,7 @@
         <v>2342.412285366658</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.897535411936</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U12" t="n">
         <v>1936.421845630691</v>
@@ -5160,10 +5160,10 @@
         <v>1466.710354312335</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.79336619013</v>
+        <v>1268.793366190129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.272039839709</v>
+        <v>1076.272039839708</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>450.7980509469215</v>
+        <v>388.2400800330537</v>
       </c>
       <c r="C13" t="n">
-        <v>370.6331247334147</v>
+        <v>308.0751538195468</v>
       </c>
       <c r="D13" t="n">
-        <v>370.6331247334147</v>
+        <v>308.0751538195468</v>
       </c>
       <c r="E13" t="n">
-        <v>308.0751538195463</v>
+        <v>308.0751538195468</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0455421701363</v>
+        <v>245.0455421701366</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8202647910987</v>
+        <v>165.8202647910989</v>
       </c>
       <c r="H13" t="n">
-        <v>98.06295847588551</v>
+        <v>98.06295847588559</v>
       </c>
       <c r="I13" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J13" t="n">
-        <v>96.30823560199551</v>
+        <v>96.30823560199553</v>
       </c>
       <c r="K13" t="n">
         <v>245.3024804191787</v>
       </c>
       <c r="L13" t="n">
-        <v>469.0514186062464</v>
+        <v>469.0514186062462</v>
       </c>
       <c r="M13" t="n">
-        <v>712.1149737064384</v>
+        <v>712.1149737064379</v>
       </c>
       <c r="N13" t="n">
-        <v>954.7180978637575</v>
+        <v>954.7180978637571</v>
       </c>
       <c r="O13" t="n">
-        <v>1174.575435216289</v>
+        <v>1174.575435216288</v>
       </c>
       <c r="P13" t="n">
-        <v>1354.070502065729</v>
+        <v>1354.070502065728</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423.949153884687</v>
+        <v>1423.949153884686</v>
       </c>
       <c r="R13" t="n">
-        <v>1374.823820672695</v>
+        <v>1388.444364158103</v>
       </c>
       <c r="S13" t="n">
-        <v>1356.406997737407</v>
+        <v>1268.427929782515</v>
       </c>
       <c r="T13" t="n">
-        <v>1213.719189026088</v>
+        <v>1125.740121071196</v>
       </c>
       <c r="U13" t="n">
-        <v>1015.993270726998</v>
+        <v>928.014202772107</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.993270726998</v>
+        <v>756.7299416553424</v>
       </c>
       <c r="W13" t="n">
-        <v>819.2879125692101</v>
+        <v>756.7299416553424</v>
       </c>
       <c r="X13" t="n">
-        <v>677.4864917893987</v>
+        <v>614.9285208755309</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.9023763064886</v>
+        <v>482.3444053926207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1412.368638816112</v>
+        <v>1363.897962813292</v>
       </c>
       <c r="C14" t="n">
-        <v>1203.261860777548</v>
+        <v>1071.415247470913</v>
       </c>
       <c r="D14" t="n">
-        <v>919.8889393295849</v>
+        <v>788.0423260229491</v>
       </c>
       <c r="E14" t="n">
-        <v>614.5542627605046</v>
+        <v>482.7076494538701</v>
       </c>
       <c r="F14" t="n">
-        <v>614.5542627605046</v>
+        <v>482.7076494538701</v>
       </c>
       <c r="G14" t="n">
-        <v>288.4440003481404</v>
+        <v>156.5973870415059</v>
       </c>
       <c r="H14" t="n">
         <v>50.631499101696</v>
@@ -5276,19 +5276,19 @@
         <v>50.631499101696</v>
       </c>
       <c r="J14" t="n">
-        <v>50.631499101696</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4291874830505</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L14" t="n">
-        <v>790.2494441526674</v>
+        <v>720.5735509263233</v>
       </c>
       <c r="M14" t="n">
-        <v>1276.882340914361</v>
+        <v>1207.206447688017</v>
       </c>
       <c r="N14" t="n">
-        <v>1750.118638310451</v>
+        <v>1680.442745084107</v>
       </c>
       <c r="O14" t="n">
         <v>2075.063371992038</v>
@@ -5303,25 +5303,25 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.163361966738</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="T14" t="n">
-        <v>2313.631044262362</v>
+        <v>2399.042637380424</v>
       </c>
       <c r="U14" t="n">
-        <v>2313.631044262362</v>
+        <v>2233.651758883922</v>
       </c>
       <c r="V14" t="n">
-        <v>2313.631044262362</v>
+        <v>2233.651758883922</v>
       </c>
       <c r="W14" t="n">
-        <v>2313.631044262362</v>
+        <v>1960.567872066335</v>
       </c>
       <c r="X14" t="n">
-        <v>2021.051947108668</v>
+        <v>1667.988774912641</v>
       </c>
       <c r="Y14" t="n">
-        <v>1716.961135009319</v>
+        <v>1363.897962813292</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5361,7 @@
         <v>413.2166240983116</v>
       </c>
       <c r="L15" t="n">
-        <v>840.8288884799132</v>
+        <v>840.8288884799131</v>
       </c>
       <c r="M15" t="n">
         <v>1397.968746744155</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.6092852575185</v>
+        <v>450.7980509469215</v>
       </c>
       <c r="C16" t="n">
-        <v>255.4443590440117</v>
+        <v>370.6331247334146</v>
       </c>
       <c r="D16" t="n">
-        <v>255.4443590440117</v>
+        <v>370.6331247334146</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8863881301434</v>
+        <v>308.0751538195462</v>
       </c>
       <c r="F16" t="n">
-        <v>129.8567764807333</v>
+        <v>245.0455421701362</v>
       </c>
       <c r="G16" t="n">
-        <v>50.631499101696</v>
+        <v>165.8202647910987</v>
       </c>
       <c r="H16" t="n">
-        <v>50.631499101696</v>
+        <v>98.06295847588549</v>
       </c>
       <c r="I16" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J16" t="n">
-        <v>96.30823560199545</v>
+        <v>96.30823560199551</v>
       </c>
       <c r="K16" t="n">
         <v>245.3024804191787</v>
       </c>
       <c r="L16" t="n">
-        <v>469.0514186062463</v>
+        <v>469.0514186062464</v>
       </c>
       <c r="M16" t="n">
-        <v>712.1149737064381</v>
+        <v>712.1149737064383</v>
       </c>
       <c r="N16" t="n">
-        <v>954.7180978637574</v>
+        <v>954.7180978637571</v>
       </c>
       <c r="O16" t="n">
-        <v>1174.575435216289</v>
+        <v>1174.575435216288</v>
       </c>
       <c r="P16" t="n">
         <v>1354.070502065729</v>
@@ -5458,28 +5458,28 @@
         <v>1423.949153884686</v>
       </c>
       <c r="R16" t="n">
-        <v>1390.717506760544</v>
+        <v>1374.823820672694</v>
       </c>
       <c r="S16" t="n">
-        <v>1270.701072384957</v>
+        <v>1254.807386297107</v>
       </c>
       <c r="T16" t="n">
-        <v>1128.013263673638</v>
+        <v>1112.119577585788</v>
       </c>
       <c r="U16" t="n">
-        <v>930.2873453745483</v>
+        <v>1112.119577585788</v>
       </c>
       <c r="V16" t="n">
-        <v>759.0030842577837</v>
+        <v>1015.993270726998</v>
       </c>
       <c r="W16" t="n">
-        <v>562.2977260999955</v>
+        <v>819.28791256921</v>
       </c>
       <c r="X16" t="n">
-        <v>562.2977260999955</v>
+        <v>677.4864917893985</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.7136106170855</v>
+        <v>544.9023763064885</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.553688872588</v>
+        <v>1351.553688872589</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.219479298934</v>
+        <v>1137.219479298935</v>
       </c>
       <c r="D17" t="n">
-        <v>931.995063619697</v>
+        <v>931.9950636196979</v>
       </c>
       <c r="E17" t="n">
-        <v>704.8088928193429</v>
+        <v>704.8088928193439</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2572512230522</v>
+        <v>458.2572512230533</v>
       </c>
       <c r="G17" t="n">
         <v>210.2954945794141</v>
@@ -5513,25 +5513,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J17" t="n">
-        <v>132.8250736341228</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K17" t="n">
-        <v>440.6227620154772</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L17" t="n">
-        <v>872.4430186850941</v>
+        <v>907.3907625372511</v>
       </c>
       <c r="M17" t="n">
-        <v>1359.075915446788</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N17" t="n">
-        <v>1832.312212842878</v>
+        <v>1867.259956695034</v>
       </c>
       <c r="O17" t="n">
-        <v>2226.932839750809</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P17" t="n">
-        <v>2531.5749550848</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q17" t="n">
         <v>2531.5749550848</v>
@@ -5540,13 +5540,13 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.311867735464</v>
+        <v>2524.311867735465</v>
       </c>
       <c r="T17" t="n">
         <v>2469.928055799815</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.685683072038</v>
+        <v>2382.685683072039</v>
       </c>
       <c r="V17" t="n">
         <v>2213.305958061519</v>
@@ -5555,10 +5555,10 @@
         <v>2018.370577012659</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.939985627691</v>
+        <v>1803.939985627692</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.997679297068</v>
+        <v>1577.997679297069</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>326.0757505631932</v>
       </c>
       <c r="L18" t="n">
-        <v>378.7085648879857</v>
+        <v>753.6880149447948</v>
       </c>
       <c r="M18" t="n">
-        <v>935.8484231522277</v>
+        <v>1310.827873209037</v>
       </c>
       <c r="N18" t="n">
-        <v>1521.129018650603</v>
+        <v>1896.108468707412</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.038188119038</v>
+        <v>2356.017638175847</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.476724739037</v>
+        <v>2531.574955084799</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.574955084799</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.724691156788</v>
+        <v>210.6463640565084</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70827071200734</v>
+        <v>208.6299436117278</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70827071200734</v>
+        <v>208.6299436117278</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70827071200734</v>
+        <v>208.6299436117278</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70827071200734</v>
+        <v>208.6299436117278</v>
       </c>
       <c r="G19" t="n">
-        <v>50.631499101696</v>
+        <v>207.5531720014166</v>
       </c>
       <c r="H19" t="n">
         <v>50.631499101696</v>
@@ -5698,25 +5698,25 @@
         <v>782.3679601895349</v>
       </c>
       <c r="S19" t="n">
-        <v>740.5000315826737</v>
+        <v>740.5000315826738</v>
       </c>
       <c r="T19" t="n">
-        <v>675.9607286400808</v>
+        <v>675.960728640081</v>
       </c>
       <c r="U19" t="n">
-        <v>556.3833161097178</v>
+        <v>556.3833161097182</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3258878619597</v>
+        <v>463.2475607616799</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7690354728979</v>
+        <v>344.6907083726181</v>
       </c>
       <c r="X19" t="n">
-        <v>124.1161204618127</v>
+        <v>281.037793361533</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.68051074762879</v>
+        <v>226.6021836473492</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.553688872587</v>
+        <v>1351.553688872588</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.219479298934</v>
+        <v>1137.219479298935</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9950636196966</v>
+        <v>931.9950636196976</v>
       </c>
       <c r="E20" t="n">
-        <v>704.8088928193424</v>
+        <v>704.8088928193436</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2572512230518</v>
+        <v>458.2572512230528</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2954945794142</v>
+        <v>210.2954945794141</v>
       </c>
       <c r="H20" t="n">
         <v>50.631499101696</v>
@@ -5756,19 +5756,19 @@
         <v>475.5705058676343</v>
       </c>
       <c r="L20" t="n">
-        <v>907.3907625372512</v>
+        <v>907.3907625372511</v>
       </c>
       <c r="M20" t="n">
         <v>1394.023659298945</v>
       </c>
       <c r="N20" t="n">
-        <v>1867.259956695035</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O20" t="n">
-        <v>2226.932839750809</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P20" t="n">
-        <v>2531.5749550848</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.5749550848</v>
@@ -5780,22 +5780,22 @@
         <v>2524.311867735464</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.928055799815</v>
+        <v>2469.928055799814</v>
       </c>
       <c r="U20" t="n">
         <v>2382.685683072038</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.305958061518</v>
+        <v>2213.305958061519</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.370577012658</v>
+        <v>2018.370577012659</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.93998562769</v>
+        <v>1803.939985627691</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.997679297067</v>
+        <v>1577.997679297068</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8525970584468</v>
+        <v>916.8525970584473</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1489242994015</v>
+        <v>755.1489242994021</v>
       </c>
       <c r="D21" t="n">
-        <v>616.3102872896136</v>
+        <v>616.3102872896141</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2822773464849</v>
+        <v>469.2822773464852</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5884792963592</v>
+        <v>334.5884792963597</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1503391504149</v>
+        <v>206.1503391504152</v>
       </c>
       <c r="H21" t="n">
         <v>109.0167463785074</v>
@@ -5838,37 +5838,37 @@
         <v>840.8288884799132</v>
       </c>
       <c r="M21" t="n">
-        <v>1397.968746744155</v>
+        <v>935.8484231522291</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.227248996364</v>
+        <v>1521.129018650604</v>
       </c>
       <c r="O21" t="n">
-        <v>2175.136418464799</v>
+        <v>1981.038188119039</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.574955084799</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.574955084799</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.818465848146</v>
+        <v>2489.818465848147</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.897535411934</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.42184563069</v>
+        <v>1936.421845630691</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.026223079024</v>
+        <v>1708.026223079025</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.710354312334</v>
+        <v>1466.710354312335</v>
       </c>
       <c r="X21" t="n">
         <v>1268.793366190129</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.72469115678818</v>
+        <v>53.72469115678783</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70827071200743</v>
+        <v>51.70827071200726</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70827071200743</v>
+        <v>51.70827071200726</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70827071200743</v>
+        <v>51.70827071200726</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70827071200743</v>
+        <v>51.70827071200726</v>
       </c>
       <c r="G22" t="n">
         <v>50.631499101696</v>
@@ -5935,25 +5935,25 @@
         <v>782.3679601895349</v>
       </c>
       <c r="S22" t="n">
-        <v>583.5783586829546</v>
+        <v>740.5000315826738</v>
       </c>
       <c r="T22" t="n">
-        <v>519.0390557403616</v>
+        <v>675.960728640081</v>
       </c>
       <c r="U22" t="n">
-        <v>399.4616432099987</v>
+        <v>556.3833161097182</v>
       </c>
       <c r="V22" t="n">
-        <v>306.3258878619602</v>
+        <v>306.3258878619592</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7690354728983</v>
+        <v>187.7690354728974</v>
       </c>
       <c r="X22" t="n">
-        <v>124.116120461813</v>
+        <v>124.1161204618123</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.68051074762904</v>
+        <v>69.68051074762853</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.553688872588</v>
+        <v>1351.553688872586</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.219479298934</v>
+        <v>1137.219479298933</v>
       </c>
       <c r="D23" t="n">
-        <v>931.995063619697</v>
+        <v>931.9950636196959</v>
       </c>
       <c r="E23" t="n">
-        <v>704.8088928193429</v>
+        <v>704.8088928193422</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2572512230522</v>
+        <v>458.2572512230518</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2954945794143</v>
+        <v>210.295494579414</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63149910169604</v>
+        <v>50.63149910169597</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63149910169604</v>
+        <v>50.63149910169597</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63149910169604</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K23" t="n">
-        <v>358.4291874830505</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L23" t="n">
-        <v>790.2494441526674</v>
+        <v>907.390762537251</v>
       </c>
       <c r="M23" t="n">
-        <v>1276.882340914361</v>
+        <v>1394.023659298944</v>
       </c>
       <c r="N23" t="n">
-        <v>1750.118638310451</v>
+        <v>1867.259956695034</v>
       </c>
       <c r="O23" t="n">
-        <v>2144.739265218383</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P23" t="n">
-        <v>2449.381380552373</v>
+        <v>2379.705487326028</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.574955084799</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.574955084802</v>
+        <v>2531.574955084799</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.311867735466</v>
+        <v>2524.311867735462</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.928055799815</v>
+        <v>2469.928055799813</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.685683072039</v>
+        <v>2382.685683072037</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.30595806152</v>
+        <v>2213.305958061517</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.37057701266</v>
+        <v>2018.370577012657</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.939985627692</v>
+        <v>1803.93998562769</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.997679297068</v>
+        <v>1577.997679297066</v>
       </c>
     </row>
     <row r="24">
@@ -6051,37 +6051,37 @@
         <v>616.3102872896136</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2822773464849</v>
+        <v>469.2822773464848</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5884792963592</v>
+        <v>334.5884792963591</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1503391504149</v>
+        <v>206.1503391504148</v>
       </c>
       <c r="H24" t="n">
         <v>109.0167463785074</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63149910169604</v>
+        <v>50.63149910169597</v>
       </c>
       <c r="J24" t="n">
-        <v>137.7723726368145</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="K24" t="n">
         <v>413.2166240983116</v>
       </c>
       <c r="L24" t="n">
-        <v>840.8288884799132</v>
+        <v>840.8288884799131</v>
       </c>
       <c r="M24" t="n">
-        <v>935.8484231522277</v>
+        <v>1397.968746744155</v>
       </c>
       <c r="N24" t="n">
-        <v>1521.129018650603</v>
+        <v>1983.24934224253</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.038188119038</v>
+        <v>2337.476724739037</v>
       </c>
       <c r="P24" t="n">
         <v>2337.476724739037</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210.6463640565073</v>
+        <v>53.72469115678781</v>
       </c>
       <c r="C25" t="n">
-        <v>208.6299436117265</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="D25" t="n">
-        <v>208.6299436117265</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="E25" t="n">
-        <v>208.6299436117265</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="F25" t="n">
-        <v>208.6299436117265</v>
+        <v>51.70827071200723</v>
       </c>
       <c r="G25" t="n">
-        <v>207.5531720014151</v>
+        <v>50.63149910169597</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63149910169604</v>
+        <v>50.63149910169597</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63149910169604</v>
+        <v>50.63149910169597</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63149910169604</v>
+        <v>50.63149910169597</v>
       </c>
       <c r="K25" t="n">
         <v>111.9547763562302</v>
       </c>
       <c r="L25" t="n">
-        <v>248.0327469806489</v>
+        <v>248.0327469806488</v>
       </c>
       <c r="M25" t="n">
         <v>403.4253345181916</v>
@@ -6169,28 +6169,28 @@
         <v>782.3679601895349</v>
       </c>
       <c r="R25" t="n">
-        <v>782.3679601895349</v>
+        <v>643.79158365273</v>
       </c>
       <c r="S25" t="n">
-        <v>740.5000315826736</v>
+        <v>601.9236550458689</v>
       </c>
       <c r="T25" t="n">
-        <v>675.9607286400807</v>
+        <v>537.3843521032761</v>
       </c>
       <c r="U25" t="n">
-        <v>556.3833161097177</v>
+        <v>399.4616432099974</v>
       </c>
       <c r="V25" t="n">
-        <v>463.2475607616793</v>
+        <v>306.3258878619591</v>
       </c>
       <c r="W25" t="n">
-        <v>344.6907083726173</v>
+        <v>187.7690354728974</v>
       </c>
       <c r="X25" t="n">
-        <v>281.0377933615321</v>
+        <v>124.1161204618123</v>
       </c>
       <c r="Y25" t="n">
-        <v>226.6021836473481</v>
+        <v>69.6805107476285</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.368283428341</v>
+        <v>1803.36828342834</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.000225413085</v>
+        <v>1525.000225413084</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.741961292245</v>
+        <v>1255.741961292244</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5219420502882</v>
+        <v>964.5219420502873</v>
       </c>
       <c r="F26" t="n">
-        <v>653.936452012395</v>
+        <v>653.9364520123941</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9408469271543</v>
+        <v>341.9408469271534</v>
       </c>
       <c r="H26" t="n">
         <v>118.2430030078329</v>
@@ -6224,7 +6224,7 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J26" t="n">
-        <v>288.5592683370142</v>
+        <v>288.5592683370141</v>
       </c>
       <c r="K26" t="n">
         <v>697.8616999273315</v>
@@ -6233,16 +6233,16 @@
         <v>1231.186699805911</v>
       </c>
       <c r="M26" t="n">
-        <v>1819.324339776568</v>
+        <v>1719.191899538645</v>
       </c>
       <c r="N26" t="n">
-        <v>2394.06538038162</v>
+        <v>2293.932940143698</v>
       </c>
       <c r="O26" t="n">
-        <v>2890.190750498515</v>
+        <v>2790.058310260592</v>
       </c>
       <c r="P26" t="n">
-        <v>3296.337609041468</v>
+        <v>3196.205168803545</v>
       </c>
       <c r="Q26" t="n">
         <v>3449.579379771279</v>
@@ -6257,19 +6257,19 @@
         <v>3305.945741005183</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.669519835805</v>
+        <v>3154.669519835804</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.255946383682</v>
+        <v>2921.255946383681</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.28671689322</v>
+        <v>2662.286716893219</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.82227706665</v>
+        <v>2383.822277066649</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.846122294424</v>
+        <v>2093.846122294423</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J27" t="n">
-        <v>157.0540802785859</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="K27" t="n">
-        <v>432.4983317400831</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1105961216847</v>
+        <v>497.5254711250691</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.250454385927</v>
+        <v>1054.665329389311</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.410726292375</v>
+        <v>1639.945924887686</v>
       </c>
       <c r="O27" t="n">
-        <v>2000.319895760809</v>
+        <v>2099.855094356121</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.758432380809</v>
+        <v>2456.29363097612</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.85666272657</v>
@@ -6382,16 +6382,16 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4237188900808</v>
+        <v>129.4237188900811</v>
       </c>
       <c r="K28" t="n">
-        <v>292.2517393535779</v>
+        <v>292.2517393535782</v>
       </c>
       <c r="L28" t="n">
-        <v>529.8344531869595</v>
+        <v>529.8344531869596</v>
       </c>
       <c r="M28" t="n">
-        <v>786.7317839334651</v>
+        <v>786.7317839334653</v>
       </c>
       <c r="N28" t="n">
         <v>1043.168683737098</v>
@@ -6403,13 +6403,13 @@
         <v>1470.188639231697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1553.901066696968</v>
+        <v>1553.901066696969</v>
       </c>
       <c r="R28" t="n">
-        <v>1518.8903908121</v>
+        <v>1518.890390812101</v>
       </c>
       <c r="S28" t="n">
-        <v>1412.988613763636</v>
+        <v>1412.988613763637</v>
       </c>
       <c r="T28" t="n">
         <v>1284.415462379441</v>
@@ -6473,13 +6473,13 @@
         <v>1819.324339776568</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.932940143698</v>
+        <v>2394.06538038162</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.058310260592</v>
+        <v>2890.190750498515</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.205168803545</v>
+        <v>3296.337609041468</v>
       </c>
       <c r="Q29" t="n">
         <v>3449.579379771279</v>
@@ -6491,7 +6491,7 @@
         <v>3424.363401382436</v>
       </c>
       <c r="T29" t="n">
-        <v>3305.945741005184</v>
+        <v>3305.945741005183</v>
       </c>
       <c r="U29" t="n">
         <v>3154.669519835804</v>
@@ -6540,25 +6540,25 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J30" t="n">
-        <v>157.0540802785859</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="K30" t="n">
-        <v>432.4983317400831</v>
+        <v>345.3574582049647</v>
       </c>
       <c r="L30" t="n">
-        <v>860.1105961216847</v>
+        <v>772.9697225865663</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.250454385927</v>
+        <v>1330.109580850808</v>
       </c>
       <c r="N30" t="n">
-        <v>2002.531049884302</v>
+        <v>1540.410726292375</v>
       </c>
       <c r="O30" t="n">
-        <v>2462.440219352737</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.85666272657</v>
+        <v>2356.758432380809</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.85666272657</v>
@@ -6613,7 +6613,7 @@
         <v>156.8726577786229</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2300087905332</v>
+        <v>103.2300087905334</v>
       </c>
       <c r="I31" t="n">
         <v>69.9132067434675</v>
@@ -6628,7 +6628,7 @@
         <v>529.8344531869594</v>
       </c>
       <c r="M31" t="n">
-        <v>786.7317839334652</v>
+        <v>786.7317839334651</v>
       </c>
       <c r="N31" t="n">
         <v>1043.168683737098</v>
@@ -6640,28 +6640,28 @@
         <v>1470.188639231697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1553.901066696968</v>
+        <v>1553.901066696969</v>
       </c>
       <c r="R31" t="n">
         <v>1518.8903908121</v>
       </c>
       <c r="S31" t="n">
-        <v>1412.988613763636</v>
+        <v>1412.988613763637</v>
       </c>
       <c r="T31" t="n">
         <v>1284.415462379441</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.804201407475</v>
+        <v>1100.804201407476</v>
       </c>
       <c r="V31" t="n">
-        <v>943.6345976178344</v>
+        <v>943.6345976178346</v>
       </c>
       <c r="W31" t="n">
-        <v>761.04389678717</v>
+        <v>761.0438967871702</v>
       </c>
       <c r="X31" t="n">
-        <v>633.3571333344821</v>
+        <v>633.3571333344823</v>
       </c>
       <c r="Y31" t="n">
         <v>514.8876751786955</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1784.256470072131</v>
+        <v>1784.25647007213</v>
       </c>
       <c r="C32" t="n">
-        <v>1508.504274778814</v>
+        <v>1508.504274778813</v>
       </c>
       <c r="D32" t="n">
         <v>1241.861873379913</v>
       </c>
       <c r="E32" t="n">
-        <v>953.2577168598959</v>
+        <v>953.2577168598955</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2880895439425</v>
+        <v>645.2880895439423</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9083471806414</v>
+        <v>335.9083471806412</v>
       </c>
       <c r="H32" t="n">
         <v>114.826365983259</v>
@@ -6701,37 +6701,37 @@
         <v>290.3223010881525</v>
       </c>
       <c r="K32" t="n">
-        <v>702.1885397322426</v>
+        <v>702.1885397322427</v>
       </c>
       <c r="L32" t="n">
         <v>1238.077346664595</v>
       </c>
       <c r="M32" t="n">
-        <v>1724.710243426289</v>
+        <v>1828.778793689024</v>
       </c>
       <c r="N32" t="n">
-        <v>2243.638996796881</v>
+        <v>2406.08364134785</v>
       </c>
       <c r="O32" t="n">
-        <v>2742.328173967549</v>
+        <v>2904.772818518517</v>
       </c>
       <c r="P32" t="n">
-        <v>3151.038839564275</v>
+        <v>3255.10738982701</v>
       </c>
       <c r="Q32" t="n">
-        <v>3406.976857585782</v>
+        <v>3406.976857585781</v>
       </c>
       <c r="R32" t="n">
-        <v>3455.62162204165</v>
+        <v>3455.621622041649</v>
       </c>
       <c r="S32" t="n">
-        <v>3386.940548972651</v>
+        <v>3386.94054897265</v>
       </c>
       <c r="T32" t="n">
         <v>3271.138751317337</v>
       </c>
       <c r="U32" t="n">
-        <v>3122.478392869898</v>
+        <v>3122.478392869897</v>
       </c>
       <c r="V32" t="n">
         <v>2891.680682139714</v>
@@ -6777,19 +6777,19 @@
         <v>69.11243244083299</v>
       </c>
       <c r="J33" t="n">
-        <v>69.11243244083299</v>
+        <v>156.2533059759514</v>
       </c>
       <c r="K33" t="n">
-        <v>344.5566839023302</v>
+        <v>431.6975574374486</v>
       </c>
       <c r="L33" t="n">
-        <v>772.1689482839317</v>
+        <v>859.3098218190502</v>
       </c>
       <c r="M33" t="n">
-        <v>1329.308806548174</v>
+        <v>1416.449680083292</v>
       </c>
       <c r="N33" t="n">
-        <v>1914.589402046549</v>
+        <v>1539.60995198974</v>
       </c>
       <c r="O33" t="n">
         <v>1999.519121458175</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.7861937900421</v>
+        <v>415.7861937900419</v>
       </c>
       <c r="C34" t="n">
-        <v>352.3517876255982</v>
+        <v>352.351787625598</v>
       </c>
       <c r="D34" t="n">
-        <v>305.4614578272368</v>
+        <v>305.4614578272366</v>
       </c>
       <c r="E34" t="n">
-        <v>259.6340069624314</v>
+        <v>259.6340069624313</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3349153620843</v>
+        <v>213.3349153620842</v>
       </c>
       <c r="G34" t="n">
         <v>150.8401580321097</v>
       </c>
       <c r="H34" t="n">
-        <v>99.81337176595952</v>
+        <v>99.81337176595949</v>
       </c>
       <c r="I34" t="n">
         <v>69.11243244083299</v>
       </c>
       <c r="J34" t="n">
-        <v>69.11243244083299</v>
+        <v>131.1867516412191</v>
       </c>
       <c r="K34" t="n">
-        <v>234.5042599581029</v>
+        <v>296.578579158489</v>
       </c>
       <c r="L34" t="n">
-        <v>474.6507808452571</v>
+        <v>474.3608400644301</v>
       </c>
       <c r="M34" t="n">
-        <v>734.1119186455355</v>
+        <v>733.8219778647086</v>
       </c>
       <c r="N34" t="n">
-        <v>992.8226847221149</v>
+        <v>992.8226847221144</v>
       </c>
       <c r="O34" t="n">
-        <v>1229.077604774733</v>
+        <v>1229.077604774732</v>
       </c>
       <c r="P34" t="n">
         <v>1424.970254324259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1511.246488843304</v>
+        <v>1511.246488843303</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.851675680375</v>
+        <v>1478.851675680374</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.565761353851</v>
+        <v>1375.56576135385</v>
       </c>
       <c r="T34" t="n">
         <v>1249.608472691594</v>
@@ -6892,16 +6892,16 @@
         <v>1068.613074441568</v>
       </c>
       <c r="V34" t="n">
-        <v>914.0593333738667</v>
+        <v>914.0593333738665</v>
       </c>
       <c r="W34" t="n">
-        <v>734.0844952651416</v>
+        <v>734.0844952651414</v>
       </c>
       <c r="X34" t="n">
-        <v>609.0135945343932</v>
+        <v>609.013594534393</v>
       </c>
       <c r="Y34" t="n">
-        <v>493.1599991005461</v>
+        <v>493.1599991005459</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.43080428974</v>
       </c>
       <c r="C35" t="n">
         <v>1207.752508172448</v>
       </c>
       <c r="D35" t="n">
-        <v>989.1840059495726</v>
+        <v>989.1840059495732</v>
       </c>
       <c r="E35" t="n">
-        <v>748.6537486055807</v>
+        <v>748.6537486055814</v>
       </c>
       <c r="F35" t="n">
-        <v>488.7580204656524</v>
+        <v>488.7580204656531</v>
       </c>
       <c r="G35" t="n">
-        <v>227.4521772783769</v>
+        <v>227.4521772783768</v>
       </c>
       <c r="H35" t="n">
         <v>54.44409525702106</v>
@@ -6938,19 +6938,19 @@
         <v>171.5854136416049</v>
       </c>
       <c r="K35" t="n">
-        <v>479.3831020229594</v>
+        <v>479.3831020229593</v>
       </c>
       <c r="L35" t="n">
-        <v>911.2033586925762</v>
+        <v>911.2033586925761</v>
       </c>
       <c r="M35" t="n">
         <v>1397.83625545427</v>
       </c>
       <c r="N35" t="n">
-        <v>1871.072552850359</v>
+        <v>1871.07255285036</v>
       </c>
       <c r="O35" t="n">
-        <v>2265.693179758291</v>
+        <v>2265.693179758292</v>
       </c>
       <c r="P35" t="n">
         <v>2570.335295092282</v>
@@ -6962,22 +6962,22 @@
         <v>2722.204762851053</v>
       </c>
       <c r="S35" t="n">
-        <v>2701.597588958079</v>
+        <v>2701.59758895808</v>
       </c>
       <c r="T35" t="n">
         <v>2633.869690478792</v>
       </c>
       <c r="U35" t="n">
-        <v>2533.283231207377</v>
+        <v>2533.283231207378</v>
       </c>
       <c r="V35" t="n">
-        <v>2350.55941965322</v>
+        <v>2350.559419653221</v>
       </c>
       <c r="W35" t="n">
         <v>2142.279952060723</v>
       </c>
       <c r="X35" t="n">
-        <v>1914.505274132117</v>
+        <v>1914.505274132118</v>
       </c>
       <c r="Y35" t="n">
         <v>1675.218881257857</v>
@@ -6999,10 +6999,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E36" t="n">
-        <v>473.0948735018098</v>
+        <v>473.09487350181</v>
       </c>
       <c r="F36" t="n">
-        <v>338.4010754516842</v>
+        <v>338.4010754516843</v>
       </c>
       <c r="G36" t="n">
         <v>209.9629353057399</v>
@@ -7017,22 +7017,22 @@
         <v>141.5849687921395</v>
       </c>
       <c r="K36" t="n">
-        <v>417.0292202536367</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="L36" t="n">
-        <v>844.6414846352382</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="M36" t="n">
-        <v>1401.78134289948</v>
+        <v>939.6610193075528</v>
       </c>
       <c r="N36" t="n">
-        <v>1987.061938397855</v>
+        <v>1524.941614805928</v>
       </c>
       <c r="O36" t="n">
-        <v>2446.97110786629</v>
+        <v>1984.850784274363</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.387551240124</v>
+        <v>2341.289320894362</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.387551240124</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.17834748951316</v>
+        <v>87.17834748951299</v>
       </c>
       <c r="C37" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109468</v>
       </c>
       <c r="D37" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109468</v>
       </c>
       <c r="E37" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109468</v>
       </c>
       <c r="F37" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109468</v>
       </c>
       <c r="G37" t="n">
-        <v>57.39698234714574</v>
+        <v>57.39698234714569</v>
       </c>
       <c r="H37" t="n">
         <v>54.44409525702106</v>
@@ -7120,25 +7120,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S37" t="n">
-        <v>710.4406208211429</v>
+        <v>730.9685411943611</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5572313349123</v>
+        <v>653.0851517081306</v>
       </c>
       <c r="U37" t="n">
-        <v>499.6357322609117</v>
+        <v>520.1636526341301</v>
       </c>
       <c r="V37" t="n">
-        <v>393.1558903692356</v>
+        <v>413.6838107424541</v>
       </c>
       <c r="W37" t="n">
-        <v>261.2549514365361</v>
+        <v>261.2549514365357</v>
       </c>
       <c r="X37" t="n">
-        <v>184.2579498818132</v>
+        <v>184.2579498818129</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.4782536239916</v>
+        <v>116.4782536239914</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.430804289738</v>
       </c>
       <c r="C38" t="n">
-        <v>1207.752508172448</v>
+        <v>1207.752508172447</v>
       </c>
       <c r="D38" t="n">
-        <v>989.1840059495729</v>
+        <v>989.1840059495721</v>
       </c>
       <c r="E38" t="n">
-        <v>748.6537486055811</v>
+        <v>748.6537486055803</v>
       </c>
       <c r="F38" t="n">
-        <v>488.7580204656527</v>
+        <v>488.758020465652</v>
       </c>
       <c r="G38" t="n">
         <v>227.4521772783769</v>
       </c>
       <c r="H38" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I38" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J38" t="n">
-        <v>171.5854136416054</v>
+        <v>171.5854136416051</v>
       </c>
       <c r="K38" t="n">
-        <v>479.3831020229599</v>
+        <v>479.3831020229595</v>
       </c>
       <c r="L38" t="n">
-        <v>911.2033586925768</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M38" t="n">
         <v>1397.83625545427</v>
@@ -7187,37 +7187,37 @@
         <v>1871.07255285036</v>
       </c>
       <c r="O38" t="n">
-        <v>2265.693179758292</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P38" t="n">
-        <v>2570.335295092283</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q38" t="n">
-        <v>2722.204762851054</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="R38" t="n">
-        <v>2722.204762851054</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S38" t="n">
-        <v>2701.59758895808</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T38" t="n">
-        <v>2633.869690478792</v>
+        <v>2633.869690478791</v>
       </c>
       <c r="U38" t="n">
-        <v>2533.283231207378</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V38" t="n">
-        <v>2350.559419653221</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W38" t="n">
-        <v>2142.279952060723</v>
+        <v>2142.279952060722</v>
       </c>
       <c r="X38" t="n">
-        <v>1914.505274132118</v>
+        <v>1914.505274132117</v>
       </c>
       <c r="Y38" t="n">
-        <v>1675.218881257857</v>
+        <v>1675.218881257856</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7236,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E39" t="n">
-        <v>473.09487350181</v>
+        <v>473.0948735018098</v>
       </c>
       <c r="F39" t="n">
-        <v>338.4010754516843</v>
+        <v>338.4010754516842</v>
       </c>
       <c r="G39" t="n">
         <v>209.9629353057399</v>
@@ -7248,28 +7248,28 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I39" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J39" t="n">
         <v>141.5849687921395</v>
       </c>
       <c r="K39" t="n">
-        <v>149.0071270074708</v>
+        <v>417.0292202536367</v>
       </c>
       <c r="L39" t="n">
-        <v>576.6193913890723</v>
+        <v>844.6414846352382</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.759249653314</v>
+        <v>1401.78134289948</v>
       </c>
       <c r="N39" t="n">
-        <v>1719.039845151689</v>
+        <v>1524.941614805928</v>
       </c>
       <c r="O39" t="n">
-        <v>2178.949014620124</v>
+        <v>1984.850784274363</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.387551240124</v>
+        <v>2341.289320894362</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.387551240124</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.7062678627313</v>
+        <v>87.17834748951316</v>
       </c>
       <c r="C40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="D40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="E40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="F40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109479</v>
       </c>
       <c r="G40" t="n">
-        <v>77.92490272036392</v>
+        <v>57.39698234714574</v>
       </c>
       <c r="H40" t="n">
-        <v>74.97201563023924</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I40" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J40" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K40" t="n">
-        <v>115.7673725115553</v>
+        <v>115.7673725115552</v>
       </c>
       <c r="L40" t="n">
         <v>251.8453431359739</v>
@@ -7351,31 +7351,31 @@
         <v>786.18055634486</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.18055634486</v>
+        <v>768.0269845218917</v>
       </c>
       <c r="R40" t="n">
-        <v>786.18055634486</v>
+        <v>768.0269845218917</v>
       </c>
       <c r="S40" t="n">
-        <v>730.9685411943611</v>
+        <v>712.8149693713929</v>
       </c>
       <c r="T40" t="n">
-        <v>653.0851517081305</v>
+        <v>634.9315798851623</v>
       </c>
       <c r="U40" t="n">
-        <v>520.1636526341299</v>
+        <v>502.0100808111616</v>
       </c>
       <c r="V40" t="n">
-        <v>413.6838107424538</v>
+        <v>395.5302389194856</v>
       </c>
       <c r="W40" t="n">
-        <v>281.7828718097543</v>
+        <v>261.2549514365361</v>
       </c>
       <c r="X40" t="n">
-        <v>204.7858702550314</v>
+        <v>184.2579498818132</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.0061739972098</v>
+        <v>116.4782536239916</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.43080428974</v>
       </c>
       <c r="C41" t="n">
         <v>1207.752508172448</v>
       </c>
       <c r="D41" t="n">
-        <v>989.184005949573</v>
+        <v>989.1840059495735</v>
       </c>
       <c r="E41" t="n">
-        <v>748.6537486055813</v>
+        <v>748.6537486055814</v>
       </c>
       <c r="F41" t="n">
-        <v>488.758020465653</v>
+        <v>488.7580204656533</v>
       </c>
       <c r="G41" t="n">
         <v>227.4521772783768</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44409525702068</v>
+        <v>54.44409525701997</v>
       </c>
       <c r="J41" t="n">
-        <v>171.5854136416045</v>
+        <v>171.5854136416038</v>
       </c>
       <c r="K41" t="n">
-        <v>479.383102022959</v>
+        <v>479.3831020229583</v>
       </c>
       <c r="L41" t="n">
-        <v>911.2033586925759</v>
+        <v>911.2033586925751</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.83625545427</v>
+        <v>1397.836255454269</v>
       </c>
       <c r="N41" t="n">
         <v>1871.072552850359</v>
       </c>
       <c r="O41" t="n">
-        <v>2265.693179758291</v>
+        <v>2265.69317975829</v>
       </c>
       <c r="P41" t="n">
-        <v>2570.335295092282</v>
+        <v>2570.335295092281</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.204762851053</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.204762851053</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="S41" t="n">
-        <v>2701.59758895808</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T41" t="n">
-        <v>2633.869690478792</v>
+        <v>2633.869690478791</v>
       </c>
       <c r="U41" t="n">
-        <v>2533.283231207378</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V41" t="n">
-        <v>2350.559419653221</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W41" t="n">
         <v>2142.279952060723</v>
@@ -7485,13 +7485,13 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="L42" t="n">
         <v>482.0563596386226</v>
@@ -7500,10 +7500,10 @@
         <v>1039.196217902865</v>
       </c>
       <c r="N42" t="n">
-        <v>1624.47681340124</v>
+        <v>1524.941614805928</v>
       </c>
       <c r="O42" t="n">
-        <v>2084.385982869675</v>
+        <v>1984.850784274363</v>
       </c>
       <c r="P42" t="n">
         <v>2341.289320894362</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.17834748951299</v>
+        <v>107.7062678627322</v>
       </c>
       <c r="C43" t="n">
-        <v>71.81784050109468</v>
+        <v>92.345760874314</v>
       </c>
       <c r="D43" t="n">
-        <v>71.81784050109468</v>
+        <v>92.345760874314</v>
       </c>
       <c r="E43" t="n">
-        <v>71.81784050109468</v>
+        <v>92.345760874314</v>
       </c>
       <c r="F43" t="n">
-        <v>71.81784050109468</v>
+        <v>92.345760874314</v>
       </c>
       <c r="G43" t="n">
-        <v>57.39698234714569</v>
+        <v>77.92490272036505</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44409525702106</v>
+        <v>74.97201563024049</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44409525702106</v>
+        <v>74.97201563024049</v>
       </c>
       <c r="J43" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K43" t="n">
         <v>115.7673725115552</v>
       </c>
       <c r="L43" t="n">
-        <v>251.8453431359739</v>
+        <v>251.8453431359738</v>
       </c>
       <c r="M43" t="n">
         <v>407.2379306735166</v>
@@ -7594,25 +7594,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S43" t="n">
-        <v>710.4406208211424</v>
+        <v>730.9685411943613</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5572313349119</v>
+        <v>653.0851517081308</v>
       </c>
       <c r="U43" t="n">
-        <v>499.6357322609113</v>
+        <v>520.1636526341302</v>
       </c>
       <c r="V43" t="n">
-        <v>393.1558903692352</v>
+        <v>413.6838107424543</v>
       </c>
       <c r="W43" t="n">
-        <v>261.2549514365357</v>
+        <v>281.7828718097549</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2579498818129</v>
+        <v>204.7858702550321</v>
       </c>
       <c r="Y43" t="n">
-        <v>116.4782536239914</v>
+        <v>137.0061739972106</v>
       </c>
     </row>
     <row r="44">
@@ -7628,58 +7628,58 @@
         <v>1207.752508172447</v>
       </c>
       <c r="D44" t="n">
-        <v>989.1840059495721</v>
+        <v>989.1840059495723</v>
       </c>
       <c r="E44" t="n">
         <v>748.6537486055804</v>
       </c>
       <c r="F44" t="n">
-        <v>488.7580204656524</v>
+        <v>488.7580204656522</v>
       </c>
       <c r="G44" t="n">
-        <v>227.452177278377</v>
+        <v>227.4521772783769</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J44" t="n">
         <v>171.5854136416049</v>
       </c>
       <c r="K44" t="n">
-        <v>479.3831020229594</v>
+        <v>479.3831020229593</v>
       </c>
       <c r="L44" t="n">
-        <v>911.2033586925762</v>
+        <v>911.2033586925761</v>
       </c>
       <c r="M44" t="n">
         <v>1397.83625545427</v>
       </c>
       <c r="N44" t="n">
-        <v>1871.07255285036</v>
+        <v>1871.072552850359</v>
       </c>
       <c r="O44" t="n">
         <v>2265.693179758291</v>
       </c>
       <c r="P44" t="n">
-        <v>2570.335295092282</v>
+        <v>2570.335295092281</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.204762851053</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.204762851053</v>
+        <v>2722.204762851052</v>
       </c>
       <c r="S44" t="n">
         <v>2701.597588958079</v>
       </c>
       <c r="T44" t="n">
-        <v>2633.869690478792</v>
+        <v>2633.869690478791</v>
       </c>
       <c r="U44" t="n">
-        <v>2533.283231207378</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V44" t="n">
         <v>2350.55941965322</v>
@@ -7722,19 +7722,19 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44409525702106</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8883467185182</v>
+        <v>417.0292202536367</v>
       </c>
       <c r="L45" t="n">
-        <v>757.5006111001198</v>
+        <v>844.6414846352382</v>
       </c>
       <c r="M45" t="n">
-        <v>1314.640469364362</v>
+        <v>939.6610193075528</v>
       </c>
       <c r="N45" t="n">
         <v>1524.941614805928</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.7062678627311</v>
+        <v>107.7062678627315</v>
       </c>
       <c r="C46" t="n">
-        <v>92.34576087431272</v>
+        <v>92.34576087431317</v>
       </c>
       <c r="D46" t="n">
-        <v>92.34576087431272</v>
+        <v>71.81784050109472</v>
       </c>
       <c r="E46" t="n">
-        <v>92.34576087431272</v>
+        <v>71.81784050109472</v>
       </c>
       <c r="F46" t="n">
-        <v>92.34576087431272</v>
+        <v>71.81784050109472</v>
       </c>
       <c r="G46" t="n">
-        <v>77.92490272036363</v>
+        <v>57.3969823471457</v>
       </c>
       <c r="H46" t="n">
-        <v>74.97201563023893</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I46" t="n">
-        <v>74.97201563023893</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J46" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K46" t="n">
         <v>115.7673725115552</v>
       </c>
       <c r="L46" t="n">
-        <v>251.8453431359739</v>
+        <v>251.8453431359738</v>
       </c>
       <c r="M46" t="n">
         <v>407.2379306735166</v>
@@ -7831,25 +7831,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S46" t="n">
-        <v>730.968541194361</v>
+        <v>730.9685411943611</v>
       </c>
       <c r="T46" t="n">
-        <v>653.0851517081304</v>
+        <v>653.0851517081305</v>
       </c>
       <c r="U46" t="n">
-        <v>520.1636526341298</v>
+        <v>520.1636526341299</v>
       </c>
       <c r="V46" t="n">
-        <v>413.6838107424537</v>
+        <v>413.6838107424539</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7828718097542</v>
+        <v>281.7828718097544</v>
       </c>
       <c r="X46" t="n">
-        <v>204.7858702550312</v>
+        <v>204.7858702550315</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.0061739972096</v>
+        <v>137.00617399721</v>
       </c>
     </row>
   </sheetData>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
         <v>178.8230039740467</v>
@@ -8462,13 +8462,13 @@
         <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>196.0033614891845</v>
       </c>
       <c r="O8" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.4820563681108</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8532,10 +8532,10 @@
         <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
-        <v>122.005847949598</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1806808881021</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -8544,10 +8544,10 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>125.4646959280655</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>118.8638848070747</v>
       </c>
       <c r="Q9" t="n">
         <v>123.7448702278239</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>114.8329510464913</v>
+        <v>114.4285195805143</v>
       </c>
       <c r="L10" t="n">
-        <v>119.6034782614375</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>122.8868782403605</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>113.7541836609333</v>
       </c>
       <c r="O10" t="n">
-        <v>122.1011848090766</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>121.9136820728638</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8693,7 +8693,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>354.2553247631332</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8702,7 +8702,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>306.3359814891159</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8766,16 +8766,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.89726156362399</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K12" t="n">
-        <v>325.0766127256367</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>504.8759782332723</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>53.96267335313115</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5010356988637</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>354.2553247631332</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -8939,7 +8939,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>424.6605455139481</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>156.3568809982079</v>
+        <v>156.3568809982082</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>184.5248483578807</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9176,13 +9176,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>306.3359814891169</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.6059850712385</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,13 +9240,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.89726156362399</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>103.3253276249929</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>231.2932964934868</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>77.04165552553152</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9410,16 +9410,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>379.8467475831266</v>
       </c>
       <c r="O20" t="n">
-        <v>459.7394842757537</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.6059850712385</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>138.6283772265897</v>
       </c>
       <c r="N21" t="n">
-        <v>352.4156995292801</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.04165552553151</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.5010356988637</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>229.6340664704739</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.6297977302573</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9723,16 +9723,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>138.6283772265884</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>405.2717352901242</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>53.96267335313116</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>156.3568809982081</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>172.5598694148751</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,16 +10200,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>244.3779653771158</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>143.2722121145794</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.04165552553151</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.89726156362399</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>156.3568809982081</v>
       </c>
       <c r="O33" t="n">
-        <v>133.2538937902444</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10665,10 +10665,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>308.9481826513767</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106103</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>143.2722121145794</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.04165552553151</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236964</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>73.07542099901293</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>156.3568809982081</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.04165552553151</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.89726156362399</v>
+        <v>75.897261563624</v>
       </c>
       <c r="K42" t="n">
-        <v>65.57829148857729</v>
+        <v>65.57829148857732</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,13 +11148,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>522.6044820048903</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>313.4609945901892</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229265</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.89726156362399</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>138.6283772265885</v>
       </c>
       <c r="N45" t="n">
-        <v>244.3779653771155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>42.64461111754554</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>252.7085176183326</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>235.4343762339799</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.82000905557418</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>270.3530479494103</v>
       </c>
       <c r="X11" t="n">
         <v>289.6533061821569</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0499039783556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.98464134895019</v>
+        <v>62.98464134895026</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.93239120472971</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>13.48433805055471</v>
       </c>
       <c r="S13" t="n">
-        <v>100.5836153258961</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.5714185055969</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>194.7383045762102</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C14" t="n">
-        <v>82.5421779307776</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>130.5281471735681</v>
       </c>
       <c r="I14" t="n">
-        <v>61.8200090555741</v>
+        <v>61.82000905557409</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.55747718688171</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7369697115373</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>245.0529484714534</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3530479494103</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.98464134895019</v>
+        <v>62.98464134895018</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.07973325206105</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.95714478044761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>15.73474922697122</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>195.7486591160982</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>74.40637471539458</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>140.3834065720133</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1176683.666816484</v>
+        <v>1176683.666816485</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>153175.3263014609</v>
       </c>
       <c r="C2" t="n">
-        <v>153175.3263014608</v>
+        <v>153175.3263014609</v>
       </c>
       <c r="D2" t="n">
         <v>153494.0344739094</v>
@@ -26329,16 +26329,16 @@
         <v>153524.8120988366</v>
       </c>
       <c r="H2" t="n">
+        <v>153524.8120988366</v>
+      </c>
+      <c r="I2" t="n">
         <v>153524.8120988365</v>
       </c>
-      <c r="I2" t="n">
-        <v>153524.8120988366</v>
-      </c>
       <c r="J2" t="n">
+        <v>153524.8120988365</v>
+      </c>
+      <c r="K2" t="n">
         <v>153524.8120988364</v>
-      </c>
-      <c r="K2" t="n">
-        <v>153524.8120988365</v>
       </c>
       <c r="L2" t="n">
         <v>153524.8120988361</v>
@@ -26347,7 +26347,7 @@
         <v>153524.8120988364</v>
       </c>
       <c r="N2" t="n">
-        <v>153524.8120988364</v>
+        <v>153524.8120988363</v>
       </c>
       <c r="O2" t="n">
         <v>153524.8120988364</v>
@@ -26372,37 +26372,37 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>364193.0327823791</v>
+        <v>364193.032782379</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.58084380639983e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>61893.61656883116</v>
+        <v>61893.61656883119</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83192.20727529819</v>
+        <v>83192.20727529822</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.71771218361599e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>63965.37984460715</v>
+        <v>63965.3798446072</v>
       </c>
       <c r="M3" t="n">
-        <v>147607.1236882953</v>
+        <v>147607.1236882954</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20130.4183475026</v>
+        <v>20130.41834750245</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>392532.9083931244</v>
       </c>
       <c r="D4" t="n">
-        <v>392094.6976652483</v>
+        <v>392094.6976652482</v>
       </c>
       <c r="E4" t="n">
         <v>233041.0899190961</v>
@@ -26433,7 +26433,7 @@
         <v>289423.5411035395</v>
       </c>
       <c r="H4" t="n">
-        <v>289423.5411035394</v>
+        <v>289423.5411035395</v>
       </c>
       <c r="I4" t="n">
         <v>289423.5411035395</v>
@@ -26476,7 +26476,7 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>48838.19261242529</v>
+        <v>48838.19261242528</v>
       </c>
       <c r="F5" t="n">
         <v>48838.19261242529</v>
@@ -26485,31 +26485,31 @@
         <v>55342.36067658162</v>
       </c>
       <c r="H5" t="n">
-        <v>55342.36067658162</v>
+        <v>55342.36067658163</v>
       </c>
       <c r="I5" t="n">
-        <v>55342.36067658164</v>
+        <v>55342.36067658161</v>
       </c>
       <c r="J5" t="n">
+        <v>64667.02949573724</v>
+      </c>
+      <c r="K5" t="n">
         <v>64667.02949573723</v>
       </c>
-      <c r="K5" t="n">
-        <v>64667.02949573724</v>
-      </c>
       <c r="L5" t="n">
-        <v>64276.15485927403</v>
+        <v>64276.15485927402</v>
       </c>
       <c r="M5" t="n">
+        <v>57129.32798310797</v>
+      </c>
+      <c r="N5" t="n">
         <v>57129.32798310796</v>
       </c>
-      <c r="N5" t="n">
-        <v>57129.32798310797</v>
-      </c>
       <c r="O5" t="n">
-        <v>57129.32798310797</v>
+        <v>57129.32798310796</v>
       </c>
       <c r="P5" t="n">
-        <v>57129.32798310796</v>
+        <v>57129.32798310795</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272985.1820916635</v>
+        <v>-272989.5506641307</v>
       </c>
       <c r="C6" t="n">
-        <v>-272985.1820916635</v>
+        <v>-272989.5506641307</v>
       </c>
       <c r="D6" t="n">
-        <v>-275946.1581816831</v>
+        <v>-275946.5429019946</v>
       </c>
       <c r="E6" t="n">
-        <v>-512374.3097761715</v>
+        <v>-512622.1448581852</v>
       </c>
       <c r="F6" t="n">
-        <v>-148181.2769937924</v>
+        <v>-148429.1120758063</v>
       </c>
       <c r="G6" t="n">
-        <v>-253134.7062501156</v>
+        <v>-253134.7062501158</v>
       </c>
       <c r="H6" t="n">
-        <v>-191241.0896812844</v>
+        <v>-191241.0896812846</v>
       </c>
       <c r="I6" t="n">
-        <v>-191241.0896812847</v>
+        <v>-191241.0896812846</v>
       </c>
       <c r="J6" t="n">
         <v>-281277.6130723503</v>
       </c>
       <c r="K6" t="n">
-        <v>-198085.4057970521</v>
+        <v>-198085.4057970522</v>
       </c>
       <c r="L6" t="n">
-        <v>-261606.2981275318</v>
+        <v>-261606.2981275317</v>
       </c>
       <c r="M6" t="n">
-        <v>-337136.6903558085</v>
+        <v>-337136.6903558088</v>
       </c>
       <c r="N6" t="n">
         <v>-189529.5666675133</v>
       </c>
       <c r="O6" t="n">
-        <v>-209659.9850150159</v>
+        <v>-209659.9850150158</v>
       </c>
       <c r="P6" t="n">
-        <v>-189529.5666675133</v>
+        <v>-189529.5666675132</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="F2" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="J2" t="n">
         <v>102.5300436454171</v>
@@ -26713,10 +26713,10 @@
         <v>102.5300436454171</v>
       </c>
       <c r="L2" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="M2" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="N2" t="n">
         <v>152.7129079244023</v>
@@ -26808,28 +26808,28 @@
         <v>632.8937387712</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8937387712004</v>
+        <v>632.8937387711997</v>
       </c>
       <c r="J4" t="n">
+        <v>873.9150842933437</v>
+      </c>
+      <c r="K4" t="n">
         <v>873.9150842933436</v>
       </c>
-      <c r="K4" t="n">
-        <v>873.9150842933437</v>
-      </c>
       <c r="L4" t="n">
-        <v>863.9054055104124</v>
+        <v>863.9054055104123</v>
       </c>
       <c r="M4" t="n">
         <v>680.5511907127633</v>
       </c>
       <c r="N4" t="n">
-        <v>680.5511907127634</v>
+        <v>680.5511907127632</v>
       </c>
       <c r="O4" t="n">
-        <v>680.5511907127633</v>
+        <v>680.5511907127631</v>
       </c>
       <c r="P4" t="n">
-        <v>680.5511907127633</v>
+        <v>680.5511907127631</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>77.36702071103895</v>
+        <v>77.36702071103899</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.16302293437819</v>
+        <v>25.16302293437795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95672480575894</v>
+        <v>79.95672480575899</v>
       </c>
       <c r="M2" t="n">
-        <v>47.59316018426519</v>
+        <v>47.59316018426533</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437825</v>
+        <v>25.16302293437806</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0213455221432</v>
+        <v>241.0213455221441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.5298451906195</v>
+        <v>439.5298451906197</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>77.36702071103895</v>
+        <v>77.36702071103899</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437819</v>
+        <v>25.16302293437795</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27856,10 +27856,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>360.2792000530427</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0213376229482</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>319.4833828757324</v>
       </c>
       <c r="I8" t="n">
-        <v>161.0793480203606</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27935,7 +27935,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>127.4405718567587</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27947,7 +27947,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>90.12195380676299</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>57.68878367390825</v>
@@ -27980,10 +27980,10 @@
         <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>141.2618133344558</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>177.9817277236687</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>29.33544286084191</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>201.5629861874179</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>273.2851586848435</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>218.9302606806466</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9982821476397</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="C11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="D11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="E11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="F11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="G11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="H11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="I11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713893</v>
       </c>
       <c r="S11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="T11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="U11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="V11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="W11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="X11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="C13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="D13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="E13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="F13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="G13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="H13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="I13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="J13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="K13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="L13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="M13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="N13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="O13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="P13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="R13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="S13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="T13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="U13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="V13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="W13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="X13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156463</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="C14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="D14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="E14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="F14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="G14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="H14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="I14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713893</v>
       </c>
       <c r="S14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="T14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="U14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="V14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="W14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="X14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="C16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="D16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="E16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="F16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="G16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="H16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="I16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="J16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="K16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="L16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="M16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="N16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="O16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="P16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="R16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="S16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="T16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="U16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="V16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="W16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="X16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.5565328915647</v>
+        <v>88.55653289156471</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I17" t="n">
         <v>150.3765419471388</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713893</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H19" t="n">
-        <v>155.6362661436258</v>
+        <v>0.2838099729024179</v>
       </c>
       <c r="I19" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J19" t="n">
-        <v>42.41841521449449</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.9720361047386</v>
+        <v>17.97203610473861</v>
       </c>
       <c r="R19" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V19" t="n">
-        <v>10.57109743188107</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I20" t="n">
         <v>150.3765419471388</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H22" t="n">
         <v>155.6362661436258</v>
@@ -28980,7 +28980,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J22" t="n">
-        <v>42.41841521449449</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S22" t="n">
-        <v>10.57109743188167</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9235536026036</v>
+        <v>10.57109743188022</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I23" t="n">
         <v>150.3765419471388</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,16 +29208,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2838099729038959</v>
+        <v>155.6362661436258</v>
       </c>
       <c r="I25" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J25" t="n">
-        <v>42.41841521449449</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>17.9720361047386</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1906127714368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9235536026036</v>
+        <v>147.761710203317</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="26">
@@ -29305,7 +29305,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="M26" t="n">
-        <v>102.5300436454171</v>
+        <v>1.386164617212216</v>
       </c>
       <c r="N26" t="n">
         <v>102.5300436454171</v>
@@ -29317,7 +29317,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.386164617211875</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="R26" t="n">
         <v>102.5300436454171</v>
@@ -29545,7 +29545,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="N29" t="n">
-        <v>1.386164617212216</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="O29" t="n">
         <v>102.5300436454171</v>
@@ -29554,7 +29554,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.5300436454171</v>
+        <v>1.386164617211875</v>
       </c>
       <c r="R29" t="n">
         <v>102.5300436454171</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="C32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="D32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="E32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="F32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="G32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="H32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="I32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="J32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="K32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="L32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="N32" t="n">
-        <v>46.15399593384109</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="O32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="P32" t="n">
-        <v>105.119747740137</v>
+        <v>46.15399593384012</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.119747740137</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="S32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="T32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="U32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="V32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="W32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="X32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="C34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="D34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="E34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="F34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="G34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="H34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="I34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="J34" t="n">
-        <v>42.41841521449449</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="K34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="L34" t="n">
-        <v>105.119747740137</v>
+        <v>42.12554573891163</v>
       </c>
       <c r="M34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="N34" t="n">
-        <v>104.8268782645548</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="O34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="P34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="R34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="S34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="T34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="U34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="V34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="W34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="X34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401371</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="E35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="F35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="G35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I35" t="n">
         <v>150.3765419471388</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I37" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J37" t="n">
-        <v>42.41841521449449</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S37" t="n">
-        <v>132.3902667549163</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W37" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549157</v>
       </c>
       <c r="X37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S38" t="n">
         <v>152.7129079244023</v>
@@ -30399,10 +30399,10 @@
         <v>152.7129079244023</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1910365025263</v>
+        <v>135.5136776720123</v>
       </c>
       <c r="J40" t="n">
-        <v>42.41841521449449</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.9720361047386</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.1906127714368</v>
@@ -30441,7 +30441,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="W40" t="n">
-        <v>152.7129079244023</v>
+        <v>150.3623028596549</v>
       </c>
       <c r="X40" t="n">
         <v>152.7129079244023</v>
@@ -30478,7 +30478,7 @@
         <v>152.7129079244024</v>
       </c>
       <c r="I41" t="n">
-        <v>150.3765419471388</v>
+        <v>150.3765419471377</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S41" t="n">
         <v>152.7129079244024</v>
@@ -30639,7 +30639,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J43" t="n">
-        <v>42.41841521449449</v>
+        <v>22.09577404500725</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S43" t="n">
-        <v>132.3902667549158</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T43" t="n">
         <v>152.7129079244024</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.98362202713891</v>
+        <v>55.98362202713892</v>
       </c>
       <c r="S44" t="n">
         <v>152.7129079244023</v>
@@ -30858,7 +30858,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>131.2185330710286</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30876,7 +30876,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J46" t="n">
-        <v>22.09577404500881</v>
+        <v>42.4184152144945</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486833</v>
       </c>
       <c r="H11" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119204</v>
       </c>
       <c r="I11" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J11" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906885</v>
       </c>
       <c r="K11" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229464</v>
       </c>
       <c r="L11" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158642</v>
       </c>
       <c r="M11" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384405</v>
       </c>
       <c r="N11" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290301</v>
       </c>
       <c r="O11" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494703</v>
       </c>
       <c r="P11" t="n">
-        <v>77.25779684640145</v>
+        <v>77.2577968464014</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175167</v>
       </c>
       <c r="R11" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S11" t="n">
-        <v>12.24267553750314</v>
+        <v>12.24267553750313</v>
       </c>
       <c r="T11" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2874562324633831</v>
+        <v>0.287456232463383</v>
       </c>
       <c r="H12" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I12" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796302</v>
       </c>
       <c r="J12" t="n">
-        <v>27.15831010304271</v>
+        <v>27.15831010304269</v>
       </c>
       <c r="K12" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808935</v>
       </c>
       <c r="L12" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008674</v>
       </c>
       <c r="M12" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688435</v>
       </c>
       <c r="N12" t="n">
-        <v>74.76257512651823</v>
+        <v>74.7625751265182</v>
       </c>
       <c r="O12" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614533</v>
       </c>
       <c r="P12" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101215</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.69353591936098</v>
+        <v>36.69353591936096</v>
       </c>
       <c r="R12" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S12" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712396</v>
       </c>
       <c r="T12" t="n">
-        <v>1.158650340499338</v>
+        <v>1.158650340499337</v>
       </c>
       <c r="U12" t="n">
         <v>0.01891159424101205</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2409936490166125</v>
+        <v>0.2409936490166124</v>
       </c>
       <c r="H13" t="n">
-        <v>2.142652624893156</v>
+        <v>2.142652624893155</v>
       </c>
       <c r="I13" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335946</v>
       </c>
       <c r="J13" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K13" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302096</v>
       </c>
       <c r="L13" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470618</v>
       </c>
       <c r="M13" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903134</v>
       </c>
       <c r="N13" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O13" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282083</v>
       </c>
       <c r="P13" t="n">
-        <v>29.14708642288192</v>
+        <v>29.14708642288191</v>
       </c>
       <c r="Q13" t="n">
         <v>20.17993182810925</v>
@@ -31944,13 +31944,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S13" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953144</v>
       </c>
       <c r="T13" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01314510812817888</v>
+        <v>0.01314510812817887</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486833</v>
       </c>
       <c r="H14" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119204</v>
       </c>
       <c r="I14" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J14" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906885</v>
       </c>
       <c r="K14" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229464</v>
       </c>
       <c r="L14" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158642</v>
       </c>
       <c r="M14" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384405</v>
       </c>
       <c r="N14" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290301</v>
       </c>
       <c r="O14" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494703</v>
       </c>
       <c r="P14" t="n">
-        <v>77.25779684640145</v>
+        <v>77.2577968464014</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175167</v>
       </c>
       <c r="R14" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S14" t="n">
-        <v>12.24267553750314</v>
+        <v>12.24267553750313</v>
       </c>
       <c r="T14" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389466</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2874562324633831</v>
+        <v>0.287456232463383</v>
       </c>
       <c r="H15" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I15" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796302</v>
       </c>
       <c r="J15" t="n">
-        <v>27.15831010304271</v>
+        <v>27.15831010304269</v>
       </c>
       <c r="K15" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808935</v>
       </c>
       <c r="L15" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008674</v>
       </c>
       <c r="M15" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688435</v>
       </c>
       <c r="N15" t="n">
-        <v>74.76257512651823</v>
+        <v>74.7625751265182</v>
       </c>
       <c r="O15" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614533</v>
       </c>
       <c r="P15" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101215</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.69353591936098</v>
+        <v>36.69353591936096</v>
       </c>
       <c r="R15" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S15" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712396</v>
       </c>
       <c r="T15" t="n">
-        <v>1.158650340499338</v>
+        <v>1.158650340499337</v>
       </c>
       <c r="U15" t="n">
         <v>0.01891159424101205</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2409936490166125</v>
+        <v>0.2409936490166124</v>
       </c>
       <c r="H16" t="n">
-        <v>2.142652624893156</v>
+        <v>2.142652624893155</v>
       </c>
       <c r="I16" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335946</v>
       </c>
       <c r="J16" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K16" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302096</v>
       </c>
       <c r="L16" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470618</v>
       </c>
       <c r="M16" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903134</v>
       </c>
       <c r="N16" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O16" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282083</v>
       </c>
       <c r="P16" t="n">
-        <v>29.14708642288192</v>
+        <v>29.14708642288191</v>
       </c>
       <c r="Q16" t="n">
         <v>20.17993182810925</v>
@@ -32181,13 +32181,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S16" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953144</v>
       </c>
       <c r="T16" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01314510812817888</v>
+        <v>0.01314510812817887</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486833</v>
       </c>
       <c r="H17" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119204</v>
       </c>
       <c r="I17" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J17" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906885</v>
       </c>
       <c r="K17" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229464</v>
       </c>
       <c r="L17" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158642</v>
       </c>
       <c r="M17" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384405</v>
       </c>
       <c r="N17" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290301</v>
       </c>
       <c r="O17" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494703</v>
       </c>
       <c r="P17" t="n">
-        <v>77.25779684640145</v>
+        <v>77.2577968464014</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175167</v>
       </c>
       <c r="R17" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S17" t="n">
-        <v>12.24267553750314</v>
+        <v>12.24267553750313</v>
       </c>
       <c r="T17" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2874562324633831</v>
+        <v>0.287456232463383</v>
       </c>
       <c r="H18" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I18" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796302</v>
       </c>
       <c r="J18" t="n">
-        <v>27.15831010304271</v>
+        <v>27.15831010304269</v>
       </c>
       <c r="K18" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808935</v>
       </c>
       <c r="L18" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008674</v>
       </c>
       <c r="M18" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688435</v>
       </c>
       <c r="N18" t="n">
-        <v>74.76257512651823</v>
+        <v>74.7625751265182</v>
       </c>
       <c r="O18" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614533</v>
       </c>
       <c r="P18" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101215</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.69353591936098</v>
+        <v>36.69353591936096</v>
       </c>
       <c r="R18" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S18" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712396</v>
       </c>
       <c r="T18" t="n">
-        <v>1.158650340499338</v>
+        <v>1.158650340499337</v>
       </c>
       <c r="U18" t="n">
         <v>0.01891159424101205</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2409936490166125</v>
+        <v>0.2409936490166124</v>
       </c>
       <c r="H19" t="n">
-        <v>2.142652624893156</v>
+        <v>2.142652624893155</v>
       </c>
       <c r="I19" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335946</v>
       </c>
       <c r="J19" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K19" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302096</v>
       </c>
       <c r="L19" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470618</v>
       </c>
       <c r="M19" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903134</v>
       </c>
       <c r="N19" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O19" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282083</v>
       </c>
       <c r="P19" t="n">
-        <v>29.14708642288192</v>
+        <v>29.14708642288191</v>
       </c>
       <c r="Q19" t="n">
         <v>20.17993182810925</v>
@@ -32418,13 +32418,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S19" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953144</v>
       </c>
       <c r="T19" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01314510812817888</v>
+        <v>0.01314510812817887</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H20" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I20" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J20" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K20" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L20" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M20" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N20" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O20" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P20" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R20" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S20" t="n">
         <v>12.24267553750314</v>
@@ -32503,7 +32503,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H21" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I21" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J21" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K21" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L21" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M21" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N21" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O21" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P21" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q21" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R21" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S21" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T21" t="n">
         <v>1.158650340499338</v>
@@ -32625,25 +32625,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I22" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J22" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K22" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L22" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M22" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N22" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O22" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P22" t="n">
         <v>29.14708642288192</v>
@@ -32655,7 +32655,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S22" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T22" t="n">
         <v>1.029700136707344</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H23" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I23" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J23" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K23" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L23" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M23" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N23" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O23" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P23" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R23" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S23" t="n">
         <v>12.24267553750314</v>
@@ -32740,7 +32740,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,40 +32780,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H24" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I24" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J24" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K24" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L24" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M24" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N24" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O24" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P24" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q24" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R24" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S24" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T24" t="n">
         <v>1.158650340499338</v>
@@ -32862,25 +32862,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I25" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J25" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K25" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L25" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M25" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N25" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O25" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P25" t="n">
         <v>29.14708642288192</v>
@@ -32892,7 +32892,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S25" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T25" t="n">
         <v>1.029700136707344</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H26" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I26" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J26" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K26" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L26" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M26" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N26" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O26" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P26" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R26" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S26" t="n">
         <v>12.24267553750314</v>
@@ -32977,7 +32977,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33017,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H27" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I27" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J27" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K27" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L27" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M27" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N27" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O27" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P27" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q27" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R27" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S27" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T27" t="n">
         <v>1.158650340499338</v>
@@ -33099,25 +33099,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I28" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J28" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K28" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L28" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M28" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N28" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O28" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P28" t="n">
         <v>29.14708642288192</v>
@@ -33129,7 +33129,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S28" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T28" t="n">
         <v>1.029700136707344</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H29" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I29" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J29" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K29" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L29" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M29" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N29" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O29" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P29" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R29" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S29" t="n">
         <v>12.24267553750314</v>
@@ -33214,7 +33214,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,40 +33254,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H30" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I30" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J30" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K30" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L30" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M30" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N30" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O30" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P30" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q30" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R30" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S30" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T30" t="n">
         <v>1.158650340499338</v>
@@ -33336,25 +33336,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I31" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J31" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K31" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L31" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M31" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N31" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O31" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P31" t="n">
         <v>29.14708642288192</v>
@@ -33366,7 +33366,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S31" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T31" t="n">
         <v>1.029700136707344</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H32" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I32" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J32" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K32" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L32" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M32" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N32" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O32" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P32" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R32" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S32" t="n">
         <v>12.24267553750314</v>
@@ -33451,7 +33451,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,40 +33491,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H33" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I33" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J33" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K33" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L33" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M33" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N33" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O33" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P33" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q33" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R33" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S33" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T33" t="n">
         <v>1.158650340499338</v>
@@ -33573,25 +33573,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I34" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J34" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K34" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L34" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M34" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N34" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O34" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P34" t="n">
         <v>29.14708642288192</v>
@@ -33603,7 +33603,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S34" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T34" t="n">
         <v>1.029700136707344</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H35" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I35" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J35" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K35" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L35" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M35" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N35" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O35" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P35" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R35" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S35" t="n">
         <v>12.24267553750314</v>
@@ -33688,7 +33688,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,40 +33728,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H36" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I36" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J36" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K36" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L36" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M36" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N36" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O36" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P36" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q36" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R36" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S36" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T36" t="n">
         <v>1.158650340499338</v>
@@ -33810,25 +33810,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I37" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J37" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K37" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L37" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M37" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N37" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O37" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P37" t="n">
         <v>29.14708642288192</v>
@@ -33840,7 +33840,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S37" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T37" t="n">
         <v>1.029700136707344</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H38" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I38" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J38" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K38" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L38" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M38" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N38" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O38" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P38" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R38" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S38" t="n">
         <v>12.24267553750314</v>
@@ -33925,7 +33925,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,40 +33965,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H39" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I39" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J39" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K39" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L39" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M39" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N39" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O39" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P39" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q39" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R39" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S39" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T39" t="n">
         <v>1.158650340499338</v>
@@ -34047,25 +34047,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I40" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J40" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K40" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L40" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M40" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N40" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O40" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P40" t="n">
         <v>29.14708642288192</v>
@@ -34077,7 +34077,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S40" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T40" t="n">
         <v>1.029700136707344</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H41" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I41" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J41" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K41" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L41" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M41" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N41" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O41" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P41" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R41" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S41" t="n">
         <v>12.24267553750314</v>
@@ -34162,7 +34162,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,40 +34202,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H42" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I42" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J42" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K42" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L42" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M42" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N42" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O42" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P42" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q42" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R42" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S42" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T42" t="n">
         <v>1.158650340499338</v>
@@ -34284,25 +34284,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I43" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J43" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K43" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L43" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M43" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N43" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O43" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P43" t="n">
         <v>29.14708642288192</v>
@@ -34314,7 +34314,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S43" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T43" t="n">
         <v>1.029700136707344</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5372540005486836</v>
+        <v>0.5372540005486834</v>
       </c>
       <c r="H44" t="n">
-        <v>5.502152533119207</v>
+        <v>5.502152533119205</v>
       </c>
       <c r="I44" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J44" t="n">
-        <v>45.59876172906888</v>
+        <v>45.59876172906886</v>
       </c>
       <c r="K44" t="n">
-        <v>68.34072357229466</v>
+        <v>68.34072357229465</v>
       </c>
       <c r="L44" t="n">
-        <v>84.78271069158646</v>
+        <v>84.78271069158643</v>
       </c>
       <c r="M44" t="n">
-        <v>94.3371015238441</v>
+        <v>94.33710152384408</v>
       </c>
       <c r="N44" t="n">
-        <v>95.86357445290305</v>
+        <v>95.86357445290304</v>
       </c>
       <c r="O44" t="n">
-        <v>90.52125498494708</v>
+        <v>90.52125498494706</v>
       </c>
       <c r="P44" t="n">
-        <v>77.25779684640145</v>
+        <v>77.25779684640142</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.01738795175169</v>
+        <v>58.01738795175168</v>
       </c>
       <c r="R44" t="n">
-        <v>33.74828161196628</v>
+        <v>33.74828161196626</v>
       </c>
       <c r="S44" t="n">
         <v>12.24267553750314</v>
@@ -34399,7 +34399,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04298032004389468</v>
+        <v>0.04298032004389467</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,40 +34439,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H45" t="n">
-        <v>2.776222034580569</v>
+        <v>2.776222034580568</v>
       </c>
       <c r="I45" t="n">
-        <v>9.897067652796306</v>
+        <v>9.897067652796304</v>
       </c>
       <c r="J45" t="n">
-        <v>27.15831010304271</v>
+        <v>27.1583101030427</v>
       </c>
       <c r="K45" t="n">
-        <v>46.41787767808938</v>
+        <v>46.41787767808936</v>
       </c>
       <c r="L45" t="n">
-        <v>62.41456486008677</v>
+        <v>62.41456486008676</v>
       </c>
       <c r="M45" t="n">
-        <v>72.8348532868844</v>
+        <v>72.83485328688438</v>
       </c>
       <c r="N45" t="n">
-        <v>74.76257512651823</v>
+        <v>74.76257512651821</v>
       </c>
       <c r="O45" t="n">
-        <v>68.39315018614538</v>
+        <v>68.39315018614535</v>
       </c>
       <c r="P45" t="n">
-        <v>54.89153267101217</v>
+        <v>54.89153267101216</v>
       </c>
       <c r="Q45" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R45" t="n">
-        <v>17.84750187171778</v>
+        <v>17.84750187171777</v>
       </c>
       <c r="S45" t="n">
-        <v>5.339373440712398</v>
+        <v>5.339373440712397</v>
       </c>
       <c r="T45" t="n">
         <v>1.158650340499338</v>
@@ -34521,25 +34521,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I46" t="n">
-        <v>7.24733628133595</v>
+        <v>7.247336281335948</v>
       </c>
       <c r="J46" t="n">
-        <v>17.03825098547451</v>
+        <v>17.0382509854745</v>
       </c>
       <c r="K46" t="n">
-        <v>27.99908031302098</v>
+        <v>27.99908031302097</v>
       </c>
       <c r="L46" t="n">
-        <v>35.8291830547062</v>
+        <v>35.82918305470619</v>
       </c>
       <c r="M46" t="n">
-        <v>37.77684990903136</v>
+        <v>37.77684990903135</v>
       </c>
       <c r="N46" t="n">
-        <v>36.87860085360583</v>
+        <v>36.87860085360582</v>
       </c>
       <c r="O46" t="n">
-        <v>34.06335686282085</v>
+        <v>34.06335686282084</v>
       </c>
       <c r="P46" t="n">
         <v>29.14708642288192</v>
@@ -34551,7 +34551,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S46" t="n">
-        <v>4.199862046953146</v>
+        <v>4.199862046953145</v>
       </c>
       <c r="T46" t="n">
         <v>1.029700136707344</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="P9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9.605247316954337</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>10.00967878293136</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>9.605247316954337</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.3245640248322</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K11" t="n">
         <v>310.9067559407621</v>
       </c>
       <c r="L11" t="n">
-        <v>436.1820774440574</v>
+        <v>247.477823291605</v>
       </c>
       <c r="M11" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N11" t="n">
         <v>478.0164620162523</v>
       </c>
       <c r="O11" t="n">
-        <v>209.9024396939425</v>
+        <v>398.6066938463955</v>
       </c>
       <c r="P11" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181723</v>
       </c>
       <c r="Q11" t="n">
         <v>153.4035027866375</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>259.4983212370594</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>431.9315801834359</v>
       </c>
       <c r="M12" t="n">
-        <v>562.7675336002444</v>
+        <v>462.2269289585167</v>
       </c>
       <c r="N12" t="n">
         <v>591.1925207054294</v>
@@ -35504,7 +35504,7 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q12" t="n">
         <v>196.0588185310723</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.13811767707021</v>
+        <v>46.13811767707013</v>
       </c>
       <c r="K13" t="n">
-        <v>150.499237189074</v>
+        <v>150.4992371890739</v>
       </c>
       <c r="L13" t="n">
         <v>226.0090284717855</v>
       </c>
       <c r="M13" t="n">
-        <v>245.5187425254463</v>
+        <v>245.5187425254462</v>
       </c>
       <c r="N13" t="n">
-        <v>245.0536607649689</v>
+        <v>245.0536607649688</v>
       </c>
       <c r="O13" t="n">
-        <v>222.0781185379105</v>
+        <v>222.0781185379104</v>
       </c>
       <c r="P13" t="n">
-        <v>181.3081483327676</v>
+        <v>181.3081483327675</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.58449678682609</v>
+        <v>70.58449678682602</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K14" t="n">
         <v>310.9067559407621</v>
       </c>
       <c r="L14" t="n">
-        <v>436.1820774440574</v>
+        <v>247.477823291605</v>
       </c>
       <c r="M14" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N14" t="n">
         <v>478.0164620162523</v>
       </c>
       <c r="O14" t="n">
-        <v>328.2270037187747</v>
+        <v>398.6066938463955</v>
       </c>
       <c r="P14" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181723</v>
       </c>
       <c r="Q14" t="n">
         <v>153.4035027866375</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.0210843789075</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K15" t="n">
         <v>278.2265166277749</v>
@@ -35735,7 +35735,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N15" t="n">
-        <v>124.4043150570178</v>
+        <v>124.404315057018</v>
       </c>
       <c r="O15" t="n">
         <v>464.5547166347826</v>
@@ -35823,7 +35823,7 @@
         <v>181.3081483327676</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.58449678682609</v>
+        <v>70.58449678682611</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>83.02381265901694</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K17" t="n">
         <v>310.9067559407621</v>
@@ -35890,19 +35890,19 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M17" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N17" t="n">
         <v>478.0164620162523</v>
       </c>
       <c r="O17" t="n">
-        <v>398.6066938463955</v>
+        <v>209.9024396939434</v>
       </c>
       <c r="P17" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181723</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>278.2265166277749</v>
       </c>
       <c r="L18" t="n">
-        <v>53.16445891393187</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M18" t="n">
         <v>562.7675336002444</v>
@@ -35978,10 +35978,10 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P18" t="n">
-        <v>360.0389258787872</v>
+        <v>177.3306231403556</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.0588185310723</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P19" t="n">
-        <v>92.75161544120293</v>
+        <v>92.75161544120292</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.3245640248322</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K20" t="n">
         <v>310.9067559407621</v>
@@ -36127,19 +36127,19 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M20" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N20" t="n">
-        <v>478.0164620162523</v>
+        <v>289.3122078637995</v>
       </c>
       <c r="O20" t="n">
-        <v>363.3059424805803</v>
+        <v>398.6066938463955</v>
       </c>
       <c r="P20" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181723</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.0210843789075</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K21" t="n">
         <v>278.2265166277749</v>
@@ -36206,10 +36206,10 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M21" t="n">
-        <v>562.7675336002444</v>
+        <v>95.97932795183424</v>
       </c>
       <c r="N21" t="n">
-        <v>320.46313358809</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O21" t="n">
         <v>464.5547166347826</v>
@@ -36218,7 +36218,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P22" t="n">
-        <v>92.75161544120293</v>
+        <v>92.75161544120292</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K23" t="n">
         <v>310.9067559407621</v>
@@ -36364,7 +36364,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M23" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N23" t="n">
         <v>478.0164620162523</v>
@@ -36373,10 +36373,10 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P23" t="n">
-        <v>307.7193084181724</v>
+        <v>119.0150542657188</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.02381265901874</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.0210843789075</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K24" t="n">
         <v>278.2265166277749</v>
@@ -36443,16 +36443,16 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M24" t="n">
-        <v>95.97932795183286</v>
+        <v>562.7675336002444</v>
       </c>
       <c r="N24" t="n">
         <v>591.1925207054294</v>
       </c>
       <c r="O24" t="n">
-        <v>464.5547166347826</v>
+        <v>357.8054368651584</v>
       </c>
       <c r="P24" t="n">
-        <v>360.0389258787872</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>196.0588185310723</v>
@@ -36531,7 +36531,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P25" t="n">
-        <v>92.75161544120293</v>
+        <v>92.75161544120292</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>538.7121210894744</v>
       </c>
       <c r="M26" t="n">
-        <v>594.0784242127843</v>
+        <v>492.9345451845795</v>
       </c>
       <c r="N26" t="n">
-        <v>580.5465056616694</v>
+        <v>580.5465056616692</v>
       </c>
       <c r="O26" t="n">
         <v>501.1367374918125</v>
@@ -36613,10 +36613,10 @@
         <v>410.2493520635894</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.7896674038494</v>
+        <v>255.9335464320546</v>
       </c>
       <c r="R26" t="n">
-        <v>46.54642161827815</v>
+        <v>46.54642161827813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.0210843789075</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>431.9315801834359</v>
@@ -36683,7 +36683,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N27" t="n">
-        <v>124.404315057018</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O27" t="n">
         <v>464.5547166347826</v>
@@ -36692,7 +36692,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.0588185310723</v>
+        <v>95.51821388934357</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.11162843092256</v>
+        <v>60.11162843092255</v>
       </c>
       <c r="K28" t="n">
         <v>164.4727479429263</v>
@@ -36771,7 +36771,7 @@
         <v>195.28165908662</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.55800754067846</v>
+        <v>84.55800754067845</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,19 +36838,19 @@
         <v>538.7121210894744</v>
       </c>
       <c r="M29" t="n">
-        <v>594.0784242127843</v>
+        <v>594.0784242127844</v>
       </c>
       <c r="N29" t="n">
-        <v>479.4026266334645</v>
+        <v>580.5465056616692</v>
       </c>
       <c r="O29" t="n">
-        <v>501.1367374918125</v>
+        <v>501.1367374918126</v>
       </c>
       <c r="P29" t="n">
         <v>410.2493520635894</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.9335464320546</v>
+        <v>154.7896674038494</v>
       </c>
       <c r="R29" t="n">
         <v>46.54642161827815</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.0210843789075</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>278.2265166277749</v>
@@ -36920,16 +36920,16 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N30" t="n">
-        <v>591.1925207054294</v>
+        <v>212.4253994359257</v>
       </c>
       <c r="O30" t="n">
         <v>464.5547166347826</v>
       </c>
       <c r="P30" t="n">
-        <v>89.30953876144825</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>239.9825392256379</v>
       </c>
       <c r="M31" t="n">
-        <v>259.4922532792986</v>
+        <v>259.4922532792987</v>
       </c>
       <c r="N31" t="n">
         <v>259.0271715188212</v>
       </c>
       <c r="O31" t="n">
-        <v>236.0516292917628</v>
+        <v>236.0516292917629</v>
       </c>
       <c r="P31" t="n">
         <v>195.28165908662</v>
@@ -37072,25 +37072,25 @@
         <v>416.0265036808992</v>
       </c>
       <c r="L32" t="n">
-        <v>541.3018251841944</v>
+        <v>541.3018251841945</v>
       </c>
       <c r="M32" t="n">
-        <v>491.5483805673673</v>
+        <v>596.6681283075044</v>
       </c>
       <c r="N32" t="n">
-        <v>524.1704579500934</v>
+        <v>583.1362097563893</v>
       </c>
       <c r="O32" t="n">
-        <v>503.7264415865325</v>
+        <v>503.7264415865326</v>
       </c>
       <c r="P32" t="n">
-        <v>412.8390561583094</v>
+        <v>353.8733043520124</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.5232505267746</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R32" t="n">
-        <v>49.13612571299814</v>
+        <v>49.13612571299815</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K33" t="n">
         <v>278.2265166277749</v>
@@ -37157,10 +37157,10 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N33" t="n">
-        <v>591.1925207054294</v>
+        <v>124.404315057018</v>
       </c>
       <c r="O33" t="n">
-        <v>85.7875953652787</v>
+        <v>464.5547166347826</v>
       </c>
       <c r="P33" t="n">
         <v>360.0389258787872</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>62.70133252564257</v>
       </c>
       <c r="K34" t="n">
         <v>167.0624520376463</v>
       </c>
       <c r="L34" t="n">
-        <v>242.5722433203579</v>
+        <v>179.5780413191325</v>
       </c>
       <c r="M34" t="n">
-        <v>262.0819573740186</v>
+        <v>262.0819573740187</v>
       </c>
       <c r="N34" t="n">
-        <v>261.324006137959</v>
+        <v>261.6168756135413</v>
       </c>
       <c r="O34" t="n">
-        <v>238.6413333864828</v>
+        <v>238.6413333864829</v>
       </c>
       <c r="P34" t="n">
         <v>197.87136318134</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.14771163539845</v>
+        <v>87.14771163539847</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.3245640248322</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K35" t="n">
         <v>310.9067559407621</v>
@@ -37312,7 +37312,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M35" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N35" t="n">
         <v>478.0164620162523</v>
@@ -37321,7 +37321,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P35" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181723</v>
       </c>
       <c r="Q35" t="n">
         <v>153.4035027866375</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.0210843789075</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K36" t="n">
-        <v>278.2265166277749</v>
+        <v>243.3698911627993</v>
       </c>
       <c r="L36" t="n">
-        <v>431.9315801834359</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>562.7675336002444</v>
@@ -37400,10 +37400,10 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P36" t="n">
-        <v>89.30953876144825</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P37" t="n">
-        <v>92.75161544120293</v>
+        <v>92.75161544120292</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.3245640248327</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K38" t="n">
         <v>310.9067559407621</v>
@@ -37549,7 +37549,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M38" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N38" t="n">
         <v>478.0164620162523</v>
@@ -37558,7 +37558,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P38" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181723</v>
       </c>
       <c r="Q38" t="n">
         <v>153.4035027866375</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.0210843789075</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K39" t="n">
-        <v>7.497129510435636</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L39" t="n">
         <v>431.9315801834359</v>
@@ -37631,7 +37631,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N39" t="n">
-        <v>591.1925207054294</v>
+        <v>124.404315057018</v>
       </c>
       <c r="O39" t="n">
         <v>464.5547166347826</v>
@@ -37640,7 +37640,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P40" t="n">
-        <v>92.75161544120293</v>
+        <v>92.75161544120292</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.3245640248322</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K41" t="n">
         <v>310.9067559407621</v>
@@ -37786,7 +37786,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M41" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N41" t="n">
         <v>478.0164620162523</v>
@@ -37795,7 +37795,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P41" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181723</v>
       </c>
       <c r="Q41" t="n">
         <v>153.4035027866375</v>
@@ -37868,13 +37868,13 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N42" t="n">
-        <v>591.1925207054294</v>
+        <v>490.6519160637002</v>
       </c>
       <c r="O42" t="n">
         <v>464.5547166347826</v>
       </c>
       <c r="P42" t="n">
-        <v>259.498321237058</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q42" t="n">
         <v>196.0588185310723</v>
@@ -37953,7 +37953,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P43" t="n">
-        <v>92.75161544120293</v>
+        <v>92.75161544120292</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.3245640248322</v>
+        <v>118.3245640248321</v>
       </c>
       <c r="K44" t="n">
         <v>310.9067559407621</v>
@@ -38023,7 +38023,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M44" t="n">
-        <v>491.5483805673673</v>
+        <v>491.5483805673672</v>
       </c>
       <c r="N44" t="n">
         <v>478.0164620162523</v>
@@ -38032,7 +38032,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P44" t="n">
-        <v>307.7193084181724</v>
+        <v>307.7193084181715</v>
       </c>
       <c r="Q44" t="n">
         <v>153.4035027866375</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.02108437890749</v>
       </c>
       <c r="K45" t="n">
         <v>278.2265166277749</v>
@@ -38102,10 +38102,10 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M45" t="n">
-        <v>562.7675336002444</v>
+        <v>95.97932795183299</v>
       </c>
       <c r="N45" t="n">
-        <v>212.4253994359254</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O45" t="n">
         <v>464.5547166347826</v>
@@ -38190,7 +38190,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P46" t="n">
-        <v>92.75161544120293</v>
+        <v>92.75161544120292</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
